--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28605"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5559C60-98A2-4133-B739-78B71680D112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85AA80CD-FBE2-4EBF-A28C-F67C24ADECE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>cs</t>
+  </si>
+  <si>
+    <t>sara</t>
   </si>
 </sst>
 </file>
@@ -110,8 +113,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{193A28BE-88CC-4F2E-B7A2-8DDA363DD627}" name="Table1" displayName="Table1" ref="A1:C4" totalsRowShown="0">
-  <autoFilter ref="A1:C4" xr:uid="{193A28BE-88CC-4F2E-B7A2-8DDA363DD627}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{193A28BE-88CC-4F2E-B7A2-8DDA363DD627}" name="Table1" displayName="Table1" ref="A1:C5" totalsRowShown="0">
+  <autoFilter ref="A1:C5" xr:uid="{193A28BE-88CC-4F2E-B7A2-8DDA363DD627}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{9191DCAB-00E6-40E4-93E7-4CDF369F5ED7}" name="ID"/>
     <tableColumn id="2" xr3:uid="{020173A6-CB7B-4862-BA54-A31F434DCAF2}" name="name"/>
@@ -438,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -487,6 +490,17 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>908</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28605"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85AA80CD-FBE2-4EBF-A28C-F67C24ADECE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B55CF080-400F-460F-986F-A8E65EC885D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>sara</t>
+  </si>
+  <si>
+    <t>cece</t>
   </si>
 </sst>
 </file>
@@ -113,8 +116,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{193A28BE-88CC-4F2E-B7A2-8DDA363DD627}" name="Table1" displayName="Table1" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5" xr:uid="{193A28BE-88CC-4F2E-B7A2-8DDA363DD627}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{193A28BE-88CC-4F2E-B7A2-8DDA363DD627}" name="Table1" displayName="Table1" ref="A1:C6" totalsRowShown="0">
+  <autoFilter ref="A1:C6" xr:uid="{193A28BE-88CC-4F2E-B7A2-8DDA363DD627}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{9191DCAB-00E6-40E4-93E7-4CDF369F5ED7}" name="ID"/>
     <tableColumn id="2" xr3:uid="{020173A6-CB7B-4862-BA54-A31F434DCAF2}" name="name"/>
@@ -441,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -501,6 +504,17 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>999</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28605"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B55CF080-400F-460F-986F-A8E65EC885D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C154E68A-79CD-4F21-8BF5-1B164550CB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,36 +31,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>major</t>
-  </si>
-  <si>
-    <t>noura</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>nouf</t>
-  </si>
-  <si>
-    <t>lama</t>
-  </si>
-  <si>
-    <t>cs</t>
-  </si>
-  <si>
-    <t>sara</t>
-  </si>
-  <si>
-    <t>cece</t>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Departement</t>
+  </si>
+  <si>
+    <t>org code</t>
+  </si>
+  <si>
+    <t>Grade Code</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Employee Type</t>
+  </si>
+  <si>
+    <t>Noura</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Saudi</t>
+  </si>
+  <si>
+    <t>PD&amp;ED</t>
+  </si>
+  <si>
+    <t>Dhahran</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Nouf</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>Ras Tanura</t>
+  </si>
+  <si>
+    <t>Contractor</t>
+  </si>
+  <si>
+    <t>Lama</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>T&amp;R</t>
+  </si>
+  <si>
+    <t>Riyadh</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>D&amp;R</t>
+  </si>
+  <si>
+    <t>Yara</t>
+  </si>
+  <si>
+    <t>R&amp;T</t>
+  </si>
+  <si>
+    <t>Jeddah</t>
   </si>
 </sst>
 </file>
@@ -116,12 +194,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{193A28BE-88CC-4F2E-B7A2-8DDA363DD627}" name="Table1" displayName="Table1" ref="A1:C6" totalsRowShown="0">
-  <autoFilter ref="A1:C6" xr:uid="{193A28BE-88CC-4F2E-B7A2-8DDA363DD627}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{193A28BE-88CC-4F2E-B7A2-8DDA363DD627}" name="Table1" displayName="Table1" ref="A1:K6" totalsRowShown="0">
+  <autoFilter ref="A1:K6" xr:uid="{193A28BE-88CC-4F2E-B7A2-8DDA363DD627}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{9191DCAB-00E6-40E4-93E7-4CDF369F5ED7}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{020173A6-CB7B-4862-BA54-A31F434DCAF2}" name="name"/>
-    <tableColumn id="3" xr3:uid="{9396E49A-EDF5-4126-AAC6-47F631418E2E}" name="major"/>
+    <tableColumn id="2" xr3:uid="{020173A6-CB7B-4862-BA54-A31F434DCAF2}" name="First Name"/>
+    <tableColumn id="3" xr3:uid="{9396E49A-EDF5-4126-AAC6-47F631418E2E}" name="Middle Name"/>
+    <tableColumn id="4" xr3:uid="{AD42170D-FC22-4AB1-A371-35F3449DF5D9}" name="Last Name"/>
+    <tableColumn id="5" xr3:uid="{68FEE3FE-53DA-464C-B4A4-C3B1540997C6}" name="Gender"/>
+    <tableColumn id="6" xr3:uid="{0F368E14-19E5-42E8-B4DB-32C269BCC0B0}" name="Nationality"/>
+    <tableColumn id="7" xr3:uid="{3528E6A0-EDCA-4EB8-8D41-45928FA95E1A}" name="Departement"/>
+    <tableColumn id="9" xr3:uid="{450B452B-141D-4338-AB7C-1663C95202E7}" name="org code"/>
+    <tableColumn id="10" xr3:uid="{E947D826-1310-4B04-85E8-77E6653385AD}" name="Grade Code"/>
+    <tableColumn id="11" xr3:uid="{F49C9E85-993D-48F8-9A8A-8BF557E8FE98}" name="Location"/>
+    <tableColumn id="12" xr3:uid="{66E44D9F-B202-4E59-B889-46C1DBDC5ECB}" name="Employee Type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -444,15 +530,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,60 +560,204 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>90</v>
+      </c>
+      <c r="I2">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>456</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>78</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>789</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4">
+        <v>67</v>
+      </c>
+      <c r="I4">
         <v>7</v>
       </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>908</v>
       </c>
       <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <v>56</v>
+      </c>
+      <c r="I5">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>999</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6">
+        <v>45</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28605"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C154E68A-79CD-4F21-8BF5-1B164550CB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C124D04A-E9E2-4B56-9180-81368499074D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Employee Type</t>
+  </si>
+  <si>
+    <t>Sign In</t>
+  </si>
+  <si>
+    <t>Sign out</t>
   </si>
   <si>
     <t>Noura</t>
@@ -194,9 +200,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{193A28BE-88CC-4F2E-B7A2-8DDA363DD627}" name="Table1" displayName="Table1" ref="A1:K6" totalsRowShown="0">
-  <autoFilter ref="A1:K6" xr:uid="{193A28BE-88CC-4F2E-B7A2-8DDA363DD627}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{193A28BE-88CC-4F2E-B7A2-8DDA363DD627}" name="Table1" displayName="Table1" ref="A1:M6" totalsRowShown="0">
+  <autoFilter ref="A1:M6" xr:uid="{193A28BE-88CC-4F2E-B7A2-8DDA363DD627}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{9191DCAB-00E6-40E4-93E7-4CDF369F5ED7}" name="ID"/>
     <tableColumn id="2" xr3:uid="{020173A6-CB7B-4862-BA54-A31F434DCAF2}" name="First Name"/>
     <tableColumn id="3" xr3:uid="{9396E49A-EDF5-4126-AAC6-47F631418E2E}" name="Middle Name"/>
@@ -208,6 +214,8 @@
     <tableColumn id="10" xr3:uid="{E947D826-1310-4B04-85E8-77E6653385AD}" name="Grade Code"/>
     <tableColumn id="11" xr3:uid="{F49C9E85-993D-48F8-9A8A-8BF557E8FE98}" name="Location"/>
     <tableColumn id="12" xr3:uid="{66E44D9F-B202-4E59-B889-46C1DBDC5ECB}" name="Employee Type"/>
+    <tableColumn id="8" xr3:uid="{BC0BCF96-95FE-417B-91E2-DCABA039B98C}" name="Sign In"/>
+    <tableColumn id="13" xr3:uid="{094E1A0D-13FC-4054-81C8-E4CCE70F2290}" name="Sign out"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -530,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -548,9 +556,10 @@
     <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -584,28 +593,34 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>90</v>
@@ -614,33 +629,33 @@
         <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>456</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>78</v>
@@ -649,33 +664,33 @@
         <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>789</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4">
         <v>67</v>
@@ -684,33 +699,33 @@
         <v>7</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>908</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>56</v>
@@ -719,33 +734,33 @@
         <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>999</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>45</v>
@@ -754,10 +769,10 @@
         <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -33,118 +33,118 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Middle Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Nationality</t>
-  </si>
-  <si>
-    <t>Departement</t>
-  </si>
-  <si>
-    <t>org code</t>
-  </si>
-  <si>
-    <t>Grade Code</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Employee Type</t>
-  </si>
-  <si>
-    <t>Sign In</t>
-  </si>
-  <si>
-    <t>Sign out</t>
-  </si>
-  <si>
-    <t>Noura</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Saudi</t>
-  </si>
-  <si>
-    <t>PD&amp;ED</t>
-  </si>
-  <si>
-    <t>Dhahran</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>Nouf</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
-    <t>Ras Tanura</t>
-  </si>
-  <si>
-    <t>Contractor</t>
-  </si>
-  <si>
-    <t>Lama</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>T&amp;R</t>
-  </si>
-  <si>
-    <t>Riyadh</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>D&amp;R</t>
-  </si>
-  <si>
-    <t>Yara</t>
-  </si>
-  <si>
-    <t>R&amp;T</t>
-  </si>
-  <si>
-    <t>Jeddah</t>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nationality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign In</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD&amp;ED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhahran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ras Tanura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contractor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T&amp;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riyadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D&amp;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeddah</t>
   </si>
 </sst>
 </file>
@@ -180,8 +180,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,238 +541,237 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.71" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.86" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.86" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.57" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.86" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.43" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" s="0">
         <v>123</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>90</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" s="0">
         <v>456</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>78</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>9</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" s="0">
         <v>789</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>67</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>7</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" s="0">
         <v>908</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>56</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>8</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" s="0">
         <v>999</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0">
         <v>45</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0">
         <v>10</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="0" t="s">
         <v>20</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -180,8 +180,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">

--- a/test.xlsx
+++ b/test.xlsx
@@ -180,8 +180,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>

--- a/test.xlsx
+++ b/test.xlsx
@@ -180,8 +180,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -180,8 +180,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -180,8 +180,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -180,8 +180,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -180,8 +180,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -180,8 +180,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -180,8 +180,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -180,8 +180,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -180,8 +180,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -33,118 +33,118 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nationality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Departement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grade Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sign In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sign out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD&amp;ED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhahran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nouf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R&amp;D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ras Tanura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contractor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T&amp;R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riyadh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D&amp;R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R&amp;T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeddah</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Departement</t>
+  </si>
+  <si>
+    <t>org code</t>
+  </si>
+  <si>
+    <t>Grade Code</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Employee Type</t>
+  </si>
+  <si>
+    <t>Sign In</t>
+  </si>
+  <si>
+    <t>Sign out</t>
+  </si>
+  <si>
+    <t>Noura</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Saudi</t>
+  </si>
+  <si>
+    <t>PD&amp;ED</t>
+  </si>
+  <si>
+    <t>Dhahran</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Nouf</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>Ras Tanura</t>
+  </si>
+  <si>
+    <t>Contractor</t>
+  </si>
+  <si>
+    <t>Lama</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>T&amp;R</t>
+  </si>
+  <si>
+    <t>Riyadh</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>D&amp;R</t>
+  </si>
+  <si>
+    <t>Yara</t>
+  </si>
+  <si>
+    <t>R&amp;T</t>
+  </si>
+  <si>
+    <t>Jeddah</t>
   </si>
 </sst>
 </file>
@@ -180,20 +180,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,237 +540,238 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.71" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.86" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.86" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.71" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.57" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.86" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.43" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0">
+    <row r="2" spans="1:13">
+      <c r="A2">
         <v>123</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>90</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>11</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0">
+    <row r="3" spans="1:13">
+      <c r="A3">
         <v>456</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>78</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I3">
         <v>9</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0">
+    <row r="4" spans="1:13">
+      <c r="A4">
         <v>789</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>67</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I4">
         <v>7</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0">
+    <row r="5" spans="1:13">
+      <c r="A5">
         <v>908</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>56</v>
       </c>
-      <c r="I5" s="0">
+      <c r="I5">
         <v>8</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0">
+    <row r="6" spans="1:13">
+      <c r="A6">
         <v>999</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="0">
+      <c r="H6">
         <v>45</v>
       </c>
-      <c r="I6" s="0">
+      <c r="I6">
         <v>10</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" t="s">
         <v>20</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28605"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28609"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C124D04A-E9E2-4B56-9180-81368499074D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA264240-6274-430D-8DD8-FF8ED65FCBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,118 +33,118 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nationality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Departement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grade Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sign In</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sign out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD&amp;ED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhahran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nouf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R&amp;D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ras Tanura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contractor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T&amp;R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riyadh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D&amp;R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R&amp;T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeddah</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Departement</t>
+  </si>
+  <si>
+    <t>org code</t>
+  </si>
+  <si>
+    <t>Grade Code</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Employee Type</t>
+  </si>
+  <si>
+    <t>signInTime</t>
+  </si>
+  <si>
+    <t>signOutTime</t>
+  </si>
+  <si>
+    <t>Noura</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Saudi</t>
+  </si>
+  <si>
+    <t>PD&amp;ED</t>
+  </si>
+  <si>
+    <t>Dhahran</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Nouf</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>Ras Tanura</t>
+  </si>
+  <si>
+    <t>Contractor</t>
+  </si>
+  <si>
+    <t>Lama</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>T&amp;R</t>
+  </si>
+  <si>
+    <t>Riyadh</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>D&amp;R</t>
+  </si>
+  <si>
+    <t>Yara</t>
+  </si>
+  <si>
+    <t>R&amp;T</t>
+  </si>
+  <si>
+    <t>Jeddah</t>
   </si>
 </sst>
 </file>
@@ -180,17 +180,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -223,8 +214,8 @@
     <tableColumn id="10" xr3:uid="{E947D826-1310-4B04-85E8-77E6653385AD}" name="Grade Code"/>
     <tableColumn id="11" xr3:uid="{F49C9E85-993D-48F8-9A8A-8BF557E8FE98}" name="Location"/>
     <tableColumn id="12" xr3:uid="{66E44D9F-B202-4E59-B889-46C1DBDC5ECB}" name="Employee Type"/>
-    <tableColumn id="8" xr3:uid="{BC0BCF96-95FE-417B-91E2-DCABA039B98C}" name="Sign In"/>
-    <tableColumn id="13" xr3:uid="{094E1A0D-13FC-4054-81C8-E4CCE70F2290}" name="Sign out"/>
+    <tableColumn id="8" xr3:uid="{BC0BCF96-95FE-417B-91E2-DCABA039B98C}" name="signInTime"/>
+    <tableColumn id="13" xr3:uid="{094E1A0D-13FC-4054-81C8-E4CCE70F2290}" name="signOutTime"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -549,237 +540,239 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.71" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.86" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.86" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.71" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.57" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.86" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.43" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0">
+    <row r="2" spans="1:13">
+      <c r="A2">
         <v>123</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>90</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>11</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0">
+    <row r="3" spans="1:13">
+      <c r="A3">
         <v>456</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>78</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I3">
         <v>9</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0">
+    <row r="4" spans="1:13">
+      <c r="A4">
         <v>789</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>67</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I4">
         <v>7</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0">
+    <row r="5" spans="1:13">
+      <c r="A5">
         <v>908</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>56</v>
       </c>
-      <c r="I5" s="0">
+      <c r="I5">
         <v>8</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0">
+    <row r="6" spans="1:13">
+      <c r="A6">
         <v>999</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="0">
+      <c r="H6">
         <v>45</v>
       </c>
-      <c r="I6" s="0">
+      <c r="I6">
         <v>10</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" t="s">
         <v>20</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -33,118 +33,118 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Middle Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Nationality</t>
-  </si>
-  <si>
-    <t>Departement</t>
-  </si>
-  <si>
-    <t>org code</t>
-  </si>
-  <si>
-    <t>Grade Code</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Employee Type</t>
-  </si>
-  <si>
-    <t>signInTime</t>
-  </si>
-  <si>
-    <t>signOutTime</t>
-  </si>
-  <si>
-    <t>Noura</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Saudi</t>
-  </si>
-  <si>
-    <t>PD&amp;ED</t>
-  </si>
-  <si>
-    <t>Dhahran</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>Nouf</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
-    <t>Ras Tanura</t>
-  </si>
-  <si>
-    <t>Contractor</t>
-  </si>
-  <si>
-    <t>Lama</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>T&amp;R</t>
-  </si>
-  <si>
-    <t>Riyadh</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>D&amp;R</t>
-  </si>
-  <si>
-    <t>Yara</t>
-  </si>
-  <si>
-    <t>R&amp;T</t>
-  </si>
-  <si>
-    <t>Jeddah</t>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nationality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signInTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signOutTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD&amp;ED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhahran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ras Tanura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contractor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T&amp;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riyadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D&amp;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeddah</t>
   </si>
 </sst>
 </file>
@@ -180,8 +180,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,239 +541,237 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.71" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.86" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.86" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.57" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.86" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.43" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.86" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" s="0">
         <v>123</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>90</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" s="0">
         <v>456</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>78</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>9</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" s="0">
         <v>789</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>67</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>7</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" s="0">
         <v>908</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>56</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>8</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" s="0">
         <v>999</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0">
         <v>45</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0">
         <v>10</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="0" t="s">
         <v>20</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t xml:space="preserve">Regular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:35 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:35 AM</t>
   </si>
   <si>
     <t xml:space="preserve">Nouf</t>
@@ -151,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +165,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -180,13 +188,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,19 +650,25 @@
       <c r="K2" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="L2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
         <v>456</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>16</v>
@@ -659,7 +677,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0">
         <v>78</v>
@@ -668,10 +686,10 @@
         <v>9</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -679,13 +697,13 @@
         <v>789</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>16</v>
@@ -694,7 +712,7 @@
         <v>17</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H4" s="0">
         <v>67</v>
@@ -703,7 +721,7 @@
         <v>7</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>20</v>
@@ -714,13 +732,13 @@
         <v>908</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>16</v>
@@ -729,7 +747,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5" s="0">
         <v>56</v>
@@ -741,7 +759,7 @@
         <v>19</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -749,13 +767,13 @@
         <v>999</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>16</v>
@@ -764,7 +782,7 @@
         <v>17</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H6" s="0">
         <v>45</v>
@@ -773,7 +791,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>20</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -96,10 +96,10 @@
     <t xml:space="preserve">Regular</t>
   </si>
   <si>
-    <t xml:space="preserve">10:35 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:35 AM</t>
+    <t xml:space="preserve">2:37 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:37 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Nouf</t>
@@ -157,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +165,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
   </fonts>
@@ -188,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -199,6 +201,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,10 +656,10 @@
       <c r="K2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="11" t="s">
         <v>22</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t xml:space="preserve">Contractor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:44 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:44 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Lama</t>
@@ -165,6 +171,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -190,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -203,6 +211,12 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
   </cellXfs>
@@ -656,10 +670,10 @@
       <c r="K2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -697,19 +711,25 @@
       <c r="K3" s="0" t="s">
         <v>28</v>
       </c>
+      <c r="L3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
         <v>789</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>16</v>
@@ -718,7 +738,7 @@
         <v>17</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H4" s="0">
         <v>67</v>
@@ -727,7 +747,7 @@
         <v>7</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>20</v>
@@ -738,13 +758,13 @@
         <v>908</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>16</v>
@@ -753,7 +773,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H5" s="0">
         <v>56</v>
@@ -773,10 +793,10 @@
         <v>999</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>25</v>
@@ -788,7 +808,7 @@
         <v>17</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H6" s="0">
         <v>45</v>
@@ -797,7 +817,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>20</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -120,10 +120,10 @@
     <t xml:space="preserve">Contractor</t>
   </si>
   <si>
-    <t xml:space="preserve">2:44 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:44 PM</t>
+    <t xml:space="preserve">2:49 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:49 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Lama</t>

--- a/test.xlsx
+++ b/test.xlsx
@@ -96,10 +96,10 @@
     <t xml:space="preserve">Regular</t>
   </si>
   <si>
-    <t xml:space="preserve">2:37 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:37 PM</t>
+    <t xml:space="preserve">2:50 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:50 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Nouf</t>
@@ -171,6 +171,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -198,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -219,6 +221,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -670,10 +678,10 @@
       <c r="K2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="21" t="s">
         <v>22</v>
       </c>
     </row>
@@ -711,10 +719,10 @@
       <c r="K3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="7" t="s">
         <v>30</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -96,10 +96,10 @@
     <t xml:space="preserve">Regular</t>
   </si>
   <si>
-    <t xml:space="preserve">2:50 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:50 PM</t>
+    <t xml:space="preserve">4:55 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:55 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Nouf</t>

--- a/test.xlsx
+++ b/test.xlsx
@@ -96,10 +96,10 @@
     <t xml:space="preserve">Regular</t>
   </si>
   <si>
-    <t xml:space="preserve">4:55 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:55 PM</t>
+    <t xml:space="preserve">3:09 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:09 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Nouf</t>
@@ -171,6 +171,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -200,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -221,6 +223,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -678,10 +686,10 @@
       <c r="K2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="27" t="s">
         <v>22</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -96,10 +96,10 @@
     <t xml:space="preserve">Regular</t>
   </si>
   <si>
-    <t xml:space="preserve">3:09 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:09 PM</t>
+    <t xml:space="preserve">3:39 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:39 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Nouf</t>
@@ -171,6 +171,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -202,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -223,6 +225,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -686,10 +694,10 @@
       <c r="K2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="33" t="s">
         <v>22</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -96,10 +96,10 @@
     <t xml:space="preserve">Regular</t>
   </si>
   <si>
-    <t xml:space="preserve">3:39 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:39 PM</t>
+    <t xml:space="preserve">7:49 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:49 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Nouf</t>
@@ -171,6 +171,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -204,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -225,6 +227,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -694,10 +702,10 @@
       <c r="K2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="39" t="s">
         <v>22</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -96,10 +96,10 @@
     <t xml:space="preserve">Regular</t>
   </si>
   <si>
-    <t xml:space="preserve">7:49 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:49 PM</t>
+    <t xml:space="preserve">8:03 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:03 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Nouf</t>
@@ -171,6 +171,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -206,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -227,6 +229,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -702,10 +710,10 @@
       <c r="K2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="45" t="s">
         <v>22</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -96,10 +96,10 @@
     <t xml:space="preserve">Regular</t>
   </si>
   <si>
-    <t xml:space="preserve">8:03 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:03 PM</t>
+    <t xml:space="preserve">8:06 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:06 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Nouf</t>
@@ -171,6 +171,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -208,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -229,6 +231,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -710,10 +718,10 @@
       <c r="K2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="51" t="s">
         <v>22</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -96,10 +96,10 @@
     <t xml:space="preserve">Regular</t>
   </si>
   <si>
-    <t xml:space="preserve">8:06 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:06 PM</t>
+    <t xml:space="preserve">11:08 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:08 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Nouf</t>

--- a/test.xlsx
+++ b/test.xlsx
@@ -96,10 +96,10 @@
     <t xml:space="preserve">Regular</t>
   </si>
   <si>
-    <t xml:space="preserve">11:08 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:08 PM</t>
+    <t xml:space="preserve">10:17 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:17 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Nouf</t>
@@ -171,6 +171,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -210,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -231,6 +233,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -718,10 +726,10 @@
       <c r="K2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="L2" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="57" t="s">
         <v>22</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -96,10 +96,10 @@
     <t xml:space="preserve">Regular</t>
   </si>
   <si>
-    <t xml:space="preserve">10:17 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2:17 PM</t>
+    <t xml:space="preserve">8:20 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:21 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Nouf</t>

--- a/test.xlsx
+++ b/test.xlsx
@@ -96,10 +96,10 @@
     <t xml:space="preserve">Regular</t>
   </si>
   <si>
-    <t xml:space="preserve">8:20 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:21 PM</t>
+    <t xml:space="preserve">8:23 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:23 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Nouf</t>
@@ -171,6 +171,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -212,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -233,6 +235,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -726,10 +734,10 @@
       <c r="K2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="63" t="s">
         <v>22</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -96,10 +96,10 @@
     <t xml:space="preserve">Regular</t>
   </si>
   <si>
-    <t xml:space="preserve">8:23 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:23 PM</t>
+    <t xml:space="preserve">10:37 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:37 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Nouf</t>
@@ -171,6 +171,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -214,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -235,6 +237,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -734,10 +742,10 @@
       <c r="K2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="63" t="s">
+      <c r="M2" s="69" t="s">
         <v>22</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -96,10 +96,10 @@
     <t xml:space="preserve">Regular</t>
   </si>
   <si>
-    <t xml:space="preserve">10:37 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:37 PM</t>
+    <t xml:space="preserve">8:38 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:38 AM</t>
   </si>
   <si>
     <t xml:space="preserve">Nouf</t>
@@ -171,6 +171,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -216,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -237,6 +239,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -742,10 +750,10 @@
       <c r="K2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="69" t="s">
+      <c r="L2" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="69" t="s">
+      <c r="M2" s="75" t="s">
         <v>22</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -96,10 +96,10 @@
     <t xml:space="preserve">Regular</t>
   </si>
   <si>
-    <t xml:space="preserve">8:38 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:38 AM</t>
+    <t xml:space="preserve">8:43 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:43 AM</t>
   </si>
   <si>
     <t xml:space="preserve">Nouf</t>

--- a/test.xlsx
+++ b/test.xlsx
@@ -96,10 +96,10 @@
     <t xml:space="preserve">Regular</t>
   </si>
   <si>
-    <t xml:space="preserve">8:43 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:43 AM</t>
+    <t xml:space="preserve">8:59 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:59 AM</t>
   </si>
   <si>
     <t xml:space="preserve">Nouf</t>
@@ -171,6 +171,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -218,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -239,6 +241,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -750,10 +758,10 @@
       <c r="K2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="75" t="s">
+      <c r="L2" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="75" t="s">
+      <c r="M2" s="81" t="s">
         <v>22</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -96,10 +96,10 @@
     <t xml:space="preserve">Regular</t>
   </si>
   <si>
-    <t xml:space="preserve">8:59 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:59 AM</t>
+    <t xml:space="preserve">9:02 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:02 AM</t>
   </si>
   <si>
     <t xml:space="preserve">Nouf</t>

--- a/test.xlsx
+++ b/test.xlsx
@@ -96,10 +96,10 @@
     <t xml:space="preserve">Regular</t>
   </si>
   <si>
-    <t xml:space="preserve">9:02 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:02 AM</t>
+    <t xml:space="preserve">9:38 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:38 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Nouf</t>
@@ -171,6 +171,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -220,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -241,6 +243,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -758,10 +766,10 @@
       <c r="K2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="81" t="s">
+      <c r="L2" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="81" t="s">
+      <c r="M2" s="87" t="s">
         <v>22</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -96,10 +96,10 @@
     <t xml:space="preserve">Regular</t>
   </si>
   <si>
-    <t xml:space="preserve">9:38 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:38 PM</t>
+    <t xml:space="preserve">10:10 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:10 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Nouf</t>
@@ -171,6 +171,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -222,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -243,6 +245,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -766,10 +774,10 @@
       <c r="K2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="87" t="s">
+      <c r="L2" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="87" t="s">
+      <c r="M2" s="93" t="s">
         <v>22</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -96,10 +96,10 @@
     <t xml:space="preserve">Regular</t>
   </si>
   <si>
-    <t xml:space="preserve">10:10 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:10 PM</t>
+    <t xml:space="preserve">12:44 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:44 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Nouf</t>
@@ -171,6 +171,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -224,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -245,6 +247,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -774,10 +782,10 @@
       <c r="K2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="93" t="s">
+      <c r="L2" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="93" t="s">
+      <c r="M2" s="99" t="s">
         <v>22</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28609"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA264240-6274-430D-8DD8-FF8ED65FCBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{081DC777-1738-4EF3-BA2D-009D9181326C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,139 +31,115 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nationality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Departement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grade Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signInTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signOutTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD&amp;ED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhahran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:44 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3:44 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nouf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R&amp;D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ras Tanura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contractor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2:49 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:49 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T&amp;R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riyadh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D&amp;R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R&amp;T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeddah</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="34">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Departement</t>
+  </si>
+  <si>
+    <t>org code</t>
+  </si>
+  <si>
+    <t>Grade Code</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Employee Type</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>signInTime</t>
+  </si>
+  <si>
+    <t>signOutTime</t>
+  </si>
+  <si>
+    <t>Noura</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Saudi</t>
+  </si>
+  <si>
+    <t>PD&amp;ED</t>
+  </si>
+  <si>
+    <t>Dhahran</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Nouf</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>Riyadh</t>
+  </si>
+  <si>
+    <t>Lama</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>T&amp;R</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>D&amp;R</t>
+  </si>
+  <si>
+    <t>Contractor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,40 +147,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -226,111 +168,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,9 +189,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{193A28BE-88CC-4F2E-B7A2-8DDA363DD627}" name="Table1" displayName="Table1" ref="A1:M6" totalsRowShown="0">
-  <autoFilter ref="A1:M6" xr:uid="{193A28BE-88CC-4F2E-B7A2-8DDA363DD627}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{193A28BE-88CC-4F2E-B7A2-8DDA363DD627}" name="Table1" displayName="Table1" ref="A1:N21" totalsRowShown="0">
+  <autoFilter ref="A1:N21" xr:uid="{193A28BE-88CC-4F2E-B7A2-8DDA363DD627}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{9191DCAB-00E6-40E4-93E7-4CDF369F5ED7}" name="ID"/>
     <tableColumn id="2" xr3:uid="{020173A6-CB7B-4862-BA54-A31F434DCAF2}" name="First Name"/>
     <tableColumn id="3" xr3:uid="{9396E49A-EDF5-4126-AAC6-47F631418E2E}" name="Middle Name"/>
@@ -363,6 +203,7 @@
     <tableColumn id="10" xr3:uid="{E947D826-1310-4B04-85E8-77E6653385AD}" name="Grade Code"/>
     <tableColumn id="11" xr3:uid="{F49C9E85-993D-48F8-9A8A-8BF557E8FE98}" name="Location"/>
     <tableColumn id="12" xr3:uid="{66E44D9F-B202-4E59-B889-46C1DBDC5ECB}" name="Employee Type"/>
+    <tableColumn id="15" xr3:uid="{F0A0BC91-C0A8-4EE0-BC41-0202BE0A0234}" name="Column1"/>
     <tableColumn id="8" xr3:uid="{BC0BCF96-95FE-417B-91E2-DCABA039B98C}" name="signInTime"/>
     <tableColumn id="13" xr3:uid="{094E1A0D-13FC-4054-81C8-E4CCE70F2290}" name="signOutTime"/>
   </tableColumns>
@@ -687,252 +528,831 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.71" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.86" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.86" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.71" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.57" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.86" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.86" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
         <v>123</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="0">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2">
         <v>90</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>11</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1">
+        <v>45777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="H3">
+        <v>90</v>
+      </c>
+      <c r="I3">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="99" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="99" t="s">
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1">
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>90</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="1">
+        <v>45779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>123</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <v>90</v>
+      </c>
+      <c r="I5">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="1">
+        <v>45780</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <v>90</v>
+      </c>
+      <c r="I6">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="1">
+        <v>45781</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>456</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>78</v>
+      </c>
+      <c r="I7">
+        <v>9</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="1">
+        <v>45777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
         <v>456</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="H8">
+        <v>78</v>
+      </c>
+      <c r="I8">
+        <v>9</v>
+      </c>
+      <c r="J8" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="1">
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>456</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <v>78</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="1">
+        <v>45779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>456</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10">
+        <v>78</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="1">
+        <v>45780</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>456</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11">
+        <v>78</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="1">
+        <v>45781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>789</v>
+      </c>
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="0">
-        <v>78</v>
-      </c>
-      <c r="I3" s="0">
-        <v>9</v>
-      </c>
-      <c r="J3" s="0" t="s">
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="H12">
+        <v>67</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="1">
+        <v>45777</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>789</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13">
+        <v>67</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="1">
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>789</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14">
+        <v>67</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="1">
+        <v>45779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>789</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15">
+        <v>67</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="1">
+        <v>45780</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>789</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16">
+        <v>67</v>
+      </c>
+      <c r="I16">
+        <v>7</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="1">
+        <v>45781</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>908</v>
+      </c>
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>789</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="H17">
+        <v>56</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="0">
-        <v>67</v>
-      </c>
-      <c r="I4" s="0">
-        <v>7</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="0" t="s">
+      <c r="L17" s="1">
+        <v>45777</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>908</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18">
+        <v>56</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
+      <c r="K18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="1">
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
         <v>908</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="0">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19">
         <v>56</v>
       </c>
-      <c r="I5" s="0">
+      <c r="I19">
         <v>8</v>
       </c>
-      <c r="J5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>999</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="0">
-        <v>45</v>
-      </c>
-      <c r="I6" s="0">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="0" t="s">
+      <c r="L19" s="1">
+        <v>45779</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>908</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20">
+        <v>56</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20" t="s">
         <v>20</v>
+      </c>
+      <c r="K20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="1">
+        <v>45780</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>908</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21">
+        <v>56</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+      <c r="J21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="1">
+        <v>45781</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28609"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{081DC777-1738-4EF3-BA2D-009D9181326C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86F30DE1-FE87-44CA-9A6F-BC8F9C6428B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
     <t>Employee Type</t>
   </si>
   <si>
-    <t>Column1</t>
+    <t>Date</t>
   </si>
   <si>
     <t>signInTime</t>
@@ -203,7 +203,7 @@
     <tableColumn id="10" xr3:uid="{E947D826-1310-4B04-85E8-77E6653385AD}" name="Grade Code"/>
     <tableColumn id="11" xr3:uid="{F49C9E85-993D-48F8-9A8A-8BF557E8FE98}" name="Location"/>
     <tableColumn id="12" xr3:uid="{66E44D9F-B202-4E59-B889-46C1DBDC5ECB}" name="Employee Type"/>
-    <tableColumn id="15" xr3:uid="{F0A0BC91-C0A8-4EE0-BC41-0202BE0A0234}" name="Column1"/>
+    <tableColumn id="15" xr3:uid="{F0A0BC91-C0A8-4EE0-BC41-0202BE0A0234}" name="Date"/>
     <tableColumn id="8" xr3:uid="{BC0BCF96-95FE-417B-91E2-DCABA039B98C}" name="signInTime"/>
     <tableColumn id="13" xr3:uid="{094E1A0D-13FC-4054-81C8-E4CCE70F2290}" name="signOutTime"/>
   </tableColumns>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -99,10 +99,10 @@
     <t xml:space="preserve">Regular</t>
   </si>
   <si>
-    <t xml:space="preserve">1:42 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3:42 PM</t>
+    <t xml:space="preserve">1:56 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:56 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Nouf</t>
@@ -145,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +153,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
   </fonts>
@@ -176,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -185,6 +187,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,10 +652,10 @@
       <c r="L2" s="1">
         <v>45777.0</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="10" t="s">
         <v>23</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -99,10 +99,10 @@
     <t xml:space="preserve">Regular</t>
   </si>
   <si>
-    <t xml:space="preserve">1:56 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3:56 PM</t>
+    <t xml:space="preserve">8:06 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:06 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Nouf</t>
@@ -153,6 +153,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -178,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -187,6 +189,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -652,10 +660,10 @@
       <c r="L2" s="1">
         <v>45777.0</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="16" t="s">
         <v>23</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -99,10 +99,10 @@
     <t xml:space="preserve">Regular</t>
   </si>
   <si>
-    <t xml:space="preserve">8:06 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:06 PM</t>
+    <t xml:space="preserve">8:35 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:35 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Nouf</t>
@@ -153,6 +153,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -180,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -189,6 +191,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -660,10 +668,10 @@
       <c r="L2" s="1">
         <v>45777.0</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="22" t="s">
         <v>23</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="38">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t xml:space="preserve">Riyadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:38 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:38 AM</t>
   </si>
   <si>
     <t xml:space="preserve">Lama</t>
@@ -153,6 +159,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -182,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -208,6 +216,14 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -668,10 +684,10 @@
       <c r="L2" s="1">
         <v>45777.0</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -864,6 +880,12 @@
       <c r="L7" s="1">
         <v>45777.0</v>
       </c>
+      <c r="M7" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
@@ -1022,13 +1044,13 @@
         <v>789</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>17</v>
@@ -1037,7 +1059,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H12" s="0">
         <v>67</v>
@@ -1060,13 +1082,13 @@
         <v>789</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>17</v>
@@ -1075,7 +1097,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H13" s="0">
         <v>67</v>
@@ -1098,13 +1120,13 @@
         <v>789</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>17</v>
@@ -1113,7 +1135,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H14" s="0">
         <v>67</v>
@@ -1136,13 +1158,13 @@
         <v>789</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>17</v>
@@ -1151,7 +1173,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H15" s="0">
         <v>67</v>
@@ -1174,13 +1196,13 @@
         <v>789</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>17</v>
@@ -1189,7 +1211,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H16" s="0">
         <v>67</v>
@@ -1212,10 +1234,10 @@
         <v>908</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>25</v>
@@ -1227,7 +1249,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H17" s="0">
         <v>56</v>
@@ -1239,7 +1261,7 @@
         <v>20</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L17" s="1">
         <v>45777.0</v>
@@ -1250,10 +1272,10 @@
         <v>908</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>25</v>
@@ -1265,7 +1287,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H18" s="0">
         <v>56</v>
@@ -1277,7 +1299,7 @@
         <v>20</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L18" s="1">
         <v>45778.0</v>
@@ -1288,10 +1310,10 @@
         <v>908</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>25</v>
@@ -1303,7 +1325,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H19" s="0">
         <v>56</v>
@@ -1315,7 +1337,7 @@
         <v>20</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L19" s="1">
         <v>45779.0</v>
@@ -1326,10 +1348,10 @@
         <v>908</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>25</v>
@@ -1341,7 +1363,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H20" s="0">
         <v>56</v>
@@ -1353,7 +1375,7 @@
         <v>20</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L20" s="1">
         <v>45780.0</v>
@@ -1364,10 +1386,10 @@
         <v>908</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>25</v>
@@ -1379,7 +1401,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H21" s="0">
         <v>56</v>
@@ -1391,7 +1413,7 @@
         <v>20</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L21" s="1">
         <v>45781.0</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -117,10 +117,10 @@
     <t xml:space="preserve">Riyadh</t>
   </si>
   <si>
-    <t xml:space="preserve">10:38 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:38 AM</t>
+    <t xml:space="preserve">10:43 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:43 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Lama</t>

--- a/test.xlsx
+++ b/test.xlsx
@@ -117,10 +117,10 @@
     <t xml:space="preserve">Riyadh</t>
   </si>
   <si>
-    <t xml:space="preserve">10:43 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2:43 PM</t>
+    <t xml:space="preserve">9:43 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:43 AM</t>
   </si>
   <si>
     <t xml:space="preserve">Lama</t>

--- a/test.xlsx
+++ b/test.xlsx
@@ -117,10 +117,10 @@
     <t xml:space="preserve">Riyadh</t>
   </si>
   <si>
-    <t xml:space="preserve">9:43 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:43 AM</t>
+    <t xml:space="preserve">11:45 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:45 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Lama</t>
@@ -159,6 +159,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -190,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -216,6 +218,14 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
@@ -880,10 +890,10 @@
       <c r="L7" s="1">
         <v>45777.0</v>
       </c>
-      <c r="M7" s="29" t="s">
+      <c r="M7" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="29" t="s">
+      <c r="N7" s="37" t="s">
         <v>29</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -117,10 +117,10 @@
     <t xml:space="preserve">Riyadh</t>
   </si>
   <si>
-    <t xml:space="preserve">11:45 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:45 PM</t>
+    <t xml:space="preserve">1:47 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:47 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Lama</t>

--- a/test.xlsx
+++ b/test.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="40">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t xml:space="preserve">T&amp;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:49 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:49 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Sara</t>
@@ -159,6 +165,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -192,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -218,6 +226,14 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
@@ -890,10 +906,10 @@
       <c r="L7" s="1">
         <v>45777.0</v>
       </c>
-      <c r="M7" s="37" t="s">
+      <c r="M7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="37" t="s">
+      <c r="N7" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1086,6 +1102,12 @@
       <c r="L12" s="1">
         <v>45777.0</v>
       </c>
+      <c r="M12" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="45" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
@@ -1244,10 +1266,10 @@
         <v>908</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>25</v>
@@ -1259,7 +1281,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H17" s="0">
         <v>56</v>
@@ -1271,7 +1293,7 @@
         <v>20</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L17" s="1">
         <v>45777.0</v>
@@ -1282,10 +1304,10 @@
         <v>908</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>25</v>
@@ -1297,7 +1319,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H18" s="0">
         <v>56</v>
@@ -1309,7 +1331,7 @@
         <v>20</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L18" s="1">
         <v>45778.0</v>
@@ -1320,10 +1342,10 @@
         <v>908</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>25</v>
@@ -1335,7 +1357,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H19" s="0">
         <v>56</v>
@@ -1347,7 +1369,7 @@
         <v>20</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L19" s="1">
         <v>45779.0</v>
@@ -1358,10 +1380,10 @@
         <v>908</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>25</v>
@@ -1373,7 +1395,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H20" s="0">
         <v>56</v>
@@ -1385,7 +1407,7 @@
         <v>20</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L20" s="1">
         <v>45780.0</v>
@@ -1396,10 +1418,10 @@
         <v>908</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>25</v>
@@ -1411,7 +1433,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H21" s="0">
         <v>56</v>
@@ -1423,7 +1445,7 @@
         <v>20</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L21" s="1">
         <v>45781.0</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="38">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -117,10 +117,10 @@
     <t xml:space="preserve">Riyadh</t>
   </si>
   <si>
-    <t xml:space="preserve">1:47 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:47 PM</t>
+    <t xml:space="preserve">10:49 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:49 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Lama</t>
@@ -133,12 +133,6 @@
   </si>
   <si>
     <t xml:space="preserve">T&amp;R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:49 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:49 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Sara</t>
@@ -906,10 +900,10 @@
       <c r="L7" s="1">
         <v>45777.0</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="45" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1102,12 +1096,6 @@
       <c r="L12" s="1">
         <v>45777.0</v>
       </c>
-      <c r="M12" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="N12" s="45" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
@@ -1266,10 +1254,10 @@
         <v>908</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>25</v>
@@ -1281,7 +1269,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H17" s="0">
         <v>56</v>
@@ -1293,7 +1281,7 @@
         <v>20</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L17" s="1">
         <v>45777.0</v>
@@ -1304,10 +1292,10 @@
         <v>908</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>25</v>
@@ -1319,7 +1307,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H18" s="0">
         <v>56</v>
@@ -1331,7 +1319,7 @@
         <v>20</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L18" s="1">
         <v>45778.0</v>
@@ -1342,10 +1330,10 @@
         <v>908</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>25</v>
@@ -1357,7 +1345,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H19" s="0">
         <v>56</v>
@@ -1369,7 +1357,7 @@
         <v>20</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L19" s="1">
         <v>45779.0</v>
@@ -1380,10 +1368,10 @@
         <v>908</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>25</v>
@@ -1395,7 +1383,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H20" s="0">
         <v>56</v>
@@ -1407,7 +1395,7 @@
         <v>20</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L20" s="1">
         <v>45780.0</v>
@@ -1418,10 +1406,10 @@
         <v>908</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>25</v>
@@ -1433,7 +1421,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H21" s="0">
         <v>56</v>
@@ -1445,7 +1433,7 @@
         <v>20</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L21" s="1">
         <v>45781.0</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="44">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -145,6 +145,24 @@
   </si>
   <si>
     <t xml:space="preserve">Contractor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-02-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:35 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:35 AM</t>
   </si>
 </sst>
 </file>
@@ -159,6 +177,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -194,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -220,6 +240,14 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
@@ -900,10 +928,10 @@
       <c r="L7" s="1">
         <v>45777.0</v>
       </c>
-      <c r="M7" s="45" t="s">
+      <c r="M7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="45" t="s">
+      <c r="N7" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1437,6 +1465,50 @@
       </c>
       <c r="L21" s="1">
         <v>45781.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" s="53" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -33,106 +33,106 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="34">
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Middle Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Nationality</t>
-  </si>
-  <si>
-    <t>Departement</t>
-  </si>
-  <si>
-    <t>org code</t>
-  </si>
-  <si>
-    <t>Grade Code</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Employee Type</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>signInTime</t>
-  </si>
-  <si>
-    <t>signOutTime</t>
-  </si>
-  <si>
-    <t>Noura</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Saudi</t>
-  </si>
-  <si>
-    <t>PD&amp;ED</t>
-  </si>
-  <si>
-    <t>Dhahran</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>Nouf</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
-    <t>Riyadh</t>
-  </si>
-  <si>
-    <t>Lama</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>T&amp;R</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>D&amp;R</t>
-  </si>
-  <si>
-    <t>Contractor</t>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nationality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signInTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signOutTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD&amp;ED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhahran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riyadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T&amp;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D&amp;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contractor</t>
   </si>
 </sst>
 </file>
@@ -168,12 +168,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,787 +537,785 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F8" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.71" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.86" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.86" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.57" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.86" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.43" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.86" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2">
+    <row r="2">
+      <c r="A2" s="0">
         <v>123</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>90</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="2">
+    <row r="3">
+      <c r="A3" s="0">
         <v>123</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>90</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="2">
+    <row r="4">
+      <c r="A4" s="0">
         <v>123</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>90</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>11</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="2">
+    <row r="5">
+      <c r="A5" s="0">
         <v>123</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>90</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>11</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="2">
+    <row r="6">
+      <c r="A6" s="0">
         <v>123</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0">
         <v>90</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0">
         <v>11</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" s="0">
         <v>456</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0">
         <v>78</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0">
         <v>9</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" s="0">
         <v>456</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0">
         <v>78</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0">
         <v>9</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" s="0">
         <v>456</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0">
         <v>78</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0">
         <v>9</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" s="0">
         <v>456</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="E10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="0">
         <v>78</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0">
         <v>9</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" s="0">
         <v>456</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="E11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="0">
         <v>78</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="0">
         <v>9</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" s="0">
         <v>789</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="E12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="0">
         <v>67</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="0">
         <v>7</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" s="0">
         <v>789</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="E13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0">
         <v>67</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0">
         <v>7</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" s="0">
         <v>789</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="E14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0">
         <v>67</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0">
         <v>7</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" s="0">
         <v>789</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="E15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0">
         <v>67</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0">
         <v>7</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" s="0">
         <v>789</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="E16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0">
         <v>67</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0">
         <v>7</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" s="0">
         <v>908</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="E17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0">
         <v>56</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0">
         <v>8</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="0" t="s">
         <v>33</v>
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
+    <row r="18">
+      <c r="A18" s="0">
         <v>908</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="E18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0">
         <v>56</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0">
         <v>8</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="0" t="s">
         <v>33</v>
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" s="0">
         <v>908</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="E19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0">
         <v>56</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0">
         <v>8</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="0" t="s">
         <v>33</v>
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" s="0">
         <v>908</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="E20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0">
         <v>56</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0">
         <v>8</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="0" t="s">
         <v>33</v>
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" s="0">
         <v>908</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="E21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0">
         <v>56</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0">
         <v>8</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="0" t="s">
         <v>33</v>
       </c>
       <c r="L21" s="1"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -168,12 +168,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="43">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t xml:space="preserve">Riyadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:05 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:05 AM</t>
   </si>
   <si>
     <t xml:space="preserve">Lama</t>
@@ -182,6 +188,8 @@
     </font>
     <font/>
     <font/>
+    <font/>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -203,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -217,6 +225,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,10 +690,10 @@
       <c r="L2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="0" t="s">
         <v>24</v>
       </c>
     </row>
@@ -872,6 +886,12 @@
       <c r="L7" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="M7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
@@ -1030,13 +1050,13 @@
         <v>789</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>17</v>
@@ -1045,7 +1065,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H12" s="0">
         <v>67</v>
@@ -1068,13 +1088,13 @@
         <v>789</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>17</v>
@@ -1083,7 +1103,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H13" s="0">
         <v>67</v>
@@ -1106,13 +1126,13 @@
         <v>789</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>17</v>
@@ -1121,7 +1141,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H14" s="0">
         <v>67</v>
@@ -1144,13 +1164,13 @@
         <v>789</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>17</v>
@@ -1159,7 +1179,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H15" s="0">
         <v>67</v>
@@ -1182,13 +1202,13 @@
         <v>789</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>17</v>
@@ -1197,7 +1217,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H16" s="0">
         <v>67</v>
@@ -1220,10 +1240,10 @@
         <v>908</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>30</v>
@@ -1235,7 +1255,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H17" s="0">
         <v>56</v>
@@ -1247,7 +1267,7 @@
         <v>20</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>22</v>
@@ -1258,10 +1278,10 @@
         <v>908</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>30</v>
@@ -1273,7 +1293,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H18" s="0">
         <v>56</v>
@@ -1285,7 +1305,7 @@
         <v>20</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>25</v>
@@ -1296,10 +1316,10 @@
         <v>908</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>30</v>
@@ -1311,7 +1331,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H19" s="0">
         <v>56</v>
@@ -1323,7 +1343,7 @@
         <v>20</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>26</v>
@@ -1334,10 +1354,10 @@
         <v>908</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>30</v>
@@ -1349,7 +1369,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H20" s="0">
         <v>56</v>
@@ -1361,7 +1381,7 @@
         <v>20</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>27</v>
@@ -1372,10 +1392,10 @@
         <v>908</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>30</v>
@@ -1387,7 +1407,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H21" s="0">
         <v>56</v>
@@ -1399,7 +1419,7 @@
         <v>20</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>28</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="45">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t xml:space="preserve">T&amp;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:25 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:25 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Sara</t>
@@ -190,6 +196,8 @@
     <font/>
     <font/>
     <font/>
+    <font/>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -211,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -225,6 +233,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -886,10 +900,10 @@
       <c r="L7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="0" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1082,6 +1096,12 @@
       <c r="L12" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="M12" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
@@ -1240,10 +1260,10 @@
         <v>908</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>30</v>
@@ -1255,7 +1275,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H17" s="0">
         <v>56</v>
@@ -1267,7 +1287,7 @@
         <v>20</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>22</v>
@@ -1278,10 +1298,10 @@
         <v>908</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>30</v>
@@ -1293,7 +1313,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H18" s="0">
         <v>56</v>
@@ -1305,7 +1325,7 @@
         <v>20</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>25</v>
@@ -1316,10 +1336,10 @@
         <v>908</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>30</v>
@@ -1331,7 +1351,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H19" s="0">
         <v>56</v>
@@ -1343,7 +1363,7 @@
         <v>20</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>26</v>
@@ -1354,10 +1374,10 @@
         <v>908</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>30</v>
@@ -1369,7 +1389,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H20" s="0">
         <v>56</v>
@@ -1381,7 +1401,7 @@
         <v>20</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>27</v>
@@ -1392,10 +1412,10 @@
         <v>908</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>30</v>
@@ -1407,7 +1427,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H21" s="0">
         <v>56</v>
@@ -1419,7 +1439,7 @@
         <v>20</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>28</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="47">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t xml:space="preserve">20-02-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:25 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:25 PM</t>
   </si>
   <si>
     <t xml:space="preserve">21-02-2025</t>
@@ -198,6 +204,8 @@
     <font/>
     <font/>
     <font/>
+    <font/>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -219,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -245,6 +253,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,6 +762,12 @@
       <c r="L3" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="M3" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
@@ -784,7 +804,7 @@
         <v>21</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -822,7 +842,7 @@
         <v>21</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -860,7 +880,7 @@
         <v>21</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -868,13 +888,13 @@
         <v>456</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>17</v>
@@ -883,7 +903,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7" s="0">
         <v>78</v>
@@ -892,7 +912,7 @@
         <v>9</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>21</v>
@@ -901,10 +921,10 @@
         <v>22</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -912,13 +932,13 @@
         <v>456</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>17</v>
@@ -927,7 +947,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H8" s="0">
         <v>78</v>
@@ -936,7 +956,7 @@
         <v>9</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>21</v>
@@ -950,13 +970,13 @@
         <v>456</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>17</v>
@@ -965,7 +985,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H9" s="0">
         <v>78</v>
@@ -974,13 +994,13 @@
         <v>9</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -988,13 +1008,13 @@
         <v>456</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>17</v>
@@ -1003,7 +1023,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H10" s="0">
         <v>78</v>
@@ -1012,13 +1032,13 @@
         <v>9</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -1026,13 +1046,13 @@
         <v>456</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>17</v>
@@ -1041,7 +1061,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H11" s="0">
         <v>78</v>
@@ -1050,13 +1070,13 @@
         <v>9</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -1064,13 +1084,13 @@
         <v>789</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>17</v>
@@ -1079,7 +1099,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H12" s="0">
         <v>67</v>
@@ -1088,7 +1108,7 @@
         <v>7</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>21</v>
@@ -1096,11 +1116,11 @@
       <c r="L12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>40</v>
+      <c r="M12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -1108,13 +1128,13 @@
         <v>789</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>17</v>
@@ -1123,7 +1143,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H13" s="0">
         <v>67</v>
@@ -1132,7 +1152,7 @@
         <v>7</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>21</v>
@@ -1146,13 +1166,13 @@
         <v>789</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>17</v>
@@ -1161,7 +1181,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H14" s="0">
         <v>67</v>
@@ -1170,13 +1190,13 @@
         <v>7</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -1184,13 +1204,13 @@
         <v>789</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>17</v>
@@ -1199,7 +1219,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H15" s="0">
         <v>67</v>
@@ -1208,13 +1228,13 @@
         <v>7</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -1222,13 +1242,13 @@
         <v>789</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>17</v>
@@ -1237,7 +1257,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H16" s="0">
         <v>67</v>
@@ -1246,13 +1266,13 @@
         <v>7</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K16" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
@@ -1260,13 +1280,13 @@
         <v>908</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>17</v>
@@ -1275,7 +1295,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H17" s="0">
         <v>56</v>
@@ -1287,7 +1307,7 @@
         <v>20</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>22</v>
@@ -1298,13 +1318,13 @@
         <v>908</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>17</v>
@@ -1313,7 +1333,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H18" s="0">
         <v>56</v>
@@ -1325,7 +1345,7 @@
         <v>20</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>25</v>
@@ -1336,13 +1356,13 @@
         <v>908</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>17</v>
@@ -1351,7 +1371,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H19" s="0">
         <v>56</v>
@@ -1363,10 +1383,10 @@
         <v>20</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
@@ -1374,13 +1394,13 @@
         <v>908</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>17</v>
@@ -1389,7 +1409,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H20" s="0">
         <v>56</v>
@@ -1401,10 +1421,10 @@
         <v>20</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -1412,13 +1432,13 @@
         <v>908</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>17</v>
@@ -1427,7 +1447,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H21" s="0">
         <v>56</v>
@@ -1439,10 +1459,10 @@
         <v>20</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="53">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -172,6 +172,24 @@
   </si>
   <si>
     <t xml:space="preserve">Contractor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-02-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:01 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:01 PM</t>
   </si>
 </sst>
 </file>
@@ -206,6 +224,8 @@
     <font/>
     <font/>
     <font/>
+    <font/>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -227,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -259,6 +279,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,10 +788,10 @@
       <c r="L3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="0" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1463,6 +1489,50 @@
       </c>
       <c r="L21" s="0" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="N22" s="31" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -186,10 +186,10 @@
     <t xml:space="preserve">25-02-2025</t>
   </si>
   <si>
-    <t xml:space="preserve">1:01 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:01 PM</t>
+    <t xml:space="preserve">2:00 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:40 PM</t>
   </si>
 </sst>
 </file>
@@ -226,6 +226,8 @@
     <font/>
     <font/>
     <font/>
+    <font/>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -247,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -279,6 +281,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1492,46 +1500,46 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="31" t="s">
+      <c r="E22" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="31" t="s">
+      <c r="H22" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="31" t="s">
+      <c r="I22" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="31" t="s">
+      <c r="J22" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="31" t="s">
+      <c r="K22" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L22" s="31" t="s">
+      <c r="L22" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="M22" s="31" t="s">
+      <c r="M22" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="N22" s="31" t="s">
+      <c r="N22" s="37" t="s">
         <v>52</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="56">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -190,6 +190,15 @@
   </si>
   <si>
     <t xml:space="preserve">8:40 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-02-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:30 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:30 AM</t>
   </si>
 </sst>
 </file>
@@ -228,6 +237,8 @@
     <font/>
     <font/>
     <font/>
+    <font/>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -249,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -281,6 +292,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1536,11 +1553,55 @@
       <c r="L22" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="M22" s="37" t="s">
+      <c r="M22" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="N22" s="37" t="s">
+      <c r="N22" s="0" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="M23" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="N23" s="43" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -195,10 +195,10 @@
     <t xml:space="preserve">26-02-2025</t>
   </si>
   <si>
-    <t xml:space="preserve">9:30 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:30 AM</t>
+    <t xml:space="preserve">9:06 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:06 AM</t>
   </si>
 </sst>
 </file>
@@ -239,6 +239,8 @@
     <font/>
     <font/>
     <font/>
+    <font/>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -260,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -292,6 +294,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1561,46 +1569,46 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="43" t="s">
+      <c r="E23" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="43" t="s">
+      <c r="H23" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="43" t="s">
+      <c r="I23" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="43" t="s">
+      <c r="J23" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="43" t="s">
+      <c r="K23" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L23" s="43" t="s">
+      <c r="L23" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="M23" s="43" t="s">
+      <c r="M23" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="N23" s="43" t="s">
+      <c r="N23" s="49" t="s">
         <v>55</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="59">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -199,6 +199,15 @@
   </si>
   <si>
     <t xml:space="preserve">10:06 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-02-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:54 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:54 AM</t>
   </si>
 </sst>
 </file>
@@ -241,6 +250,8 @@
     <font/>
     <font/>
     <font/>
+    <font/>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -262,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -294,6 +305,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1605,11 +1622,55 @@
       <c r="L23" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="M23" s="49" t="s">
+      <c r="M23" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="N23" s="49" t="s">
+      <c r="N23" s="0" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="M24" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="N24" s="55" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="62">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -208,6 +208,15 @@
   </si>
   <si>
     <t xml:space="preserve">12:54 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-03-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:05 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:05 PM</t>
   </si>
 </sst>
 </file>
@@ -252,6 +261,8 @@
     <font/>
     <font/>
     <font/>
+    <font/>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -273,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -305,6 +316,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1630,47 +1647,91 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="55" t="s">
+      <c r="E24" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="55" t="s">
+      <c r="H24" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="I24" s="55" t="s">
+      <c r="I24" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="J24" s="55" t="s">
+      <c r="J24" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="55" t="s">
+      <c r="K24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="M24" s="55" t="s">
+      <c r="M24" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="N24" s="55" t="s">
+      <c r="N24" s="0" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="M25" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" s="61" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -213,10 +213,10 @@
     <t xml:space="preserve">01-03-2025</t>
   </si>
   <si>
-    <t xml:space="preserve">2:05 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:05 PM</t>
+    <t xml:space="preserve">2:26 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:27 PM</t>
   </si>
 </sst>
 </file>
@@ -263,6 +263,8 @@
     <font/>
     <font/>
     <font/>
+    <font/>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -284,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -316,6 +318,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1691,46 +1699,46 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="61" t="s">
+      <c r="E25" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="61" t="s">
+      <c r="H25" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="I25" s="61" t="s">
+      <c r="I25" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="61" t="s">
+      <c r="J25" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="61" t="s">
+      <c r="K25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="M25" s="61" t="s">
+      <c r="M25" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="N25" s="61" t="s">
+      <c r="N25" s="67" t="s">
         <v>61</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28627"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nouraaljaafari/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{190E798E-DCA5-FA45-9878-7AD29BF8E801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F284F951-CE1C-4104-8DF3-6BD4FE4A4BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{99A4B5E4-4E2E-DF49-A6F6-739B713484CD}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -53,10 +48,10 @@
     <t>Gender</t>
   </si>
   <si>
-    <t xml:space="preserve">Nationality </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Departement </t>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Departement</t>
   </si>
   <si>
     <t>org code</t>
@@ -119,13 +114,13 @@
     <t>Lama</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>T&amp;D</t>
+    <t>R</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>T&amp;R</t>
   </si>
   <si>
     <t>Jeddah</t>
@@ -134,7 +129,10 @@
     <t>Contractor</t>
   </si>
   <si>
-    <t>Yara</t>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
   <si>
     <t>D&amp;R</t>
@@ -147,13 +145,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -176,15 +180,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -197,23 +205,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C342FD5C-B4C3-884B-A976-AEE7E6FBA378}" name="Table2" displayName="Table2" ref="A1:N21" totalsRowShown="0">
-  <autoFilter ref="A1:N21" xr:uid="{C342FD5C-B4C3-884B-A976-AEE7E6FBA378}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{193A28BE-88CC-4F2E-B7A2-8DDA363DD627}" name="Table1" displayName="Table1" ref="A1:N21" totalsRowShown="0">
+  <autoFilter ref="A1:N21" xr:uid="{193A28BE-88CC-4F2E-B7A2-8DDA363DD627}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{6707B18F-FA86-0243-8A58-20CA906AB6CE}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{FD900111-3D0F-DC47-85BE-61D98C9FC2C7}" name="First Name"/>
-    <tableColumn id="3" xr3:uid="{E3E5B396-6A83-7E49-BA9F-8129D80797CC}" name="Middle Name"/>
-    <tableColumn id="4" xr3:uid="{BFC7DFAC-B861-9645-AE0F-F3D3550A39A3}" name="Last Name"/>
-    <tableColumn id="5" xr3:uid="{9CF89B84-2E53-8F4E-8006-3F0EFBD9A069}" name="Gender"/>
-    <tableColumn id="6" xr3:uid="{0FC34AB8-E090-BE48-9241-20C0ED1F7375}" name="Nationality "/>
-    <tableColumn id="7" xr3:uid="{184FA24B-7762-AE42-A3DC-9FEA2DBC69A7}" name="Departement "/>
-    <tableColumn id="8" xr3:uid="{228CC05C-F35D-9644-B9B0-B2356717E4CE}" name="org code"/>
-    <tableColumn id="9" xr3:uid="{6517F0EE-8C6B-AD4A-BA2C-73296A8B4359}" name="Grade Code"/>
-    <tableColumn id="10" xr3:uid="{6BADEFC2-8F6F-214D-A314-5A0E3D1ED2D0}" name="Location"/>
-    <tableColumn id="11" xr3:uid="{02713D82-ADD4-944A-9993-8249FC139534}" name="Employee Type"/>
-    <tableColumn id="12" xr3:uid="{0496E211-3253-464F-BB4F-853C314C27E6}" name="Date"/>
-    <tableColumn id="14" xr3:uid="{88E06247-6B30-C847-8CA2-8C40FCC05B14}" name="signInTime"/>
-    <tableColumn id="13" xr3:uid="{4D502752-97BD-DE4E-8172-6B0498713EE3}" name="signOutTime"/>
+    <tableColumn id="1" xr3:uid="{9191DCAB-00E6-40E4-93E7-4CDF369F5ED7}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{020173A6-CB7B-4862-BA54-A31F434DCAF2}" name="First Name"/>
+    <tableColumn id="3" xr3:uid="{9396E49A-EDF5-4126-AAC6-47F631418E2E}" name="Middle Name"/>
+    <tableColumn id="4" xr3:uid="{AD42170D-FC22-4AB1-A371-35F3449DF5D9}" name="Last Name"/>
+    <tableColumn id="5" xr3:uid="{68FEE3FE-53DA-464C-B4A4-C3B1540997C6}" name="Gender"/>
+    <tableColumn id="6" xr3:uid="{0F368E14-19E5-42E8-B4DB-32C269BCC0B0}" name="Nationality"/>
+    <tableColumn id="7" xr3:uid="{3528E6A0-EDCA-4EB8-8D41-45928FA95E1A}" name="Departement"/>
+    <tableColumn id="9" xr3:uid="{450B452B-141D-4338-AB7C-1663C95202E7}" name="org code"/>
+    <tableColumn id="10" xr3:uid="{E947D826-1310-4B04-85E8-77E6653385AD}" name="Grade Code"/>
+    <tableColumn id="11" xr3:uid="{F49C9E85-993D-48F8-9A8A-8BF557E8FE98}" name="Location"/>
+    <tableColumn id="12" xr3:uid="{66E44D9F-B202-4E59-B889-46C1DBDC5ECB}" name="Employee Type"/>
+    <tableColumn id="15" xr3:uid="{F0A0BC91-C0A8-4EE0-BC41-0202BE0A0234}" name="Date"/>
+    <tableColumn id="8" xr3:uid="{BC0BCF96-95FE-417B-91E2-DCABA039B98C}" name="signInTime"/>
+    <tableColumn id="13" xr3:uid="{094E1A0D-13FC-4054-81C8-E4CCE70F2290}" name="signOutTime"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -236,13 +244,13 @@
         <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="145F82"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="E87331"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="186C24"/>
       </a:accent3>
       <a:accent4>
         <a:srgbClr val="0F9ED5"/>
@@ -262,7 +270,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -528,27 +536,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530A1513-1864-684A-8768-648270B3ADFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="9" width="10.97265625" customWidth="1"/>
-    <col min="10" max="14" width="11.9609375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -592,8 +611,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:14">
+      <c r="A2" s="2">
         <v>123</v>
       </c>
       <c r="B2" t="s">
@@ -627,11 +646,11 @@
         <v>21</v>
       </c>
       <c r="L2" s="1">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
+        <v>45750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="2">
         <v>123</v>
       </c>
       <c r="B3" t="s">
@@ -665,11 +684,11 @@
         <v>21</v>
       </c>
       <c r="L3" s="1">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="2">
         <v>123</v>
       </c>
       <c r="B4" t="s">
@@ -703,11 +722,11 @@
         <v>21</v>
       </c>
       <c r="L4" s="1">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
+        <v>45752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="2">
         <v>123</v>
       </c>
       <c r="B5" t="s">
@@ -741,11 +760,11 @@
         <v>21</v>
       </c>
       <c r="L5" s="1">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
+        <v>45753</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2">
         <v>123</v>
       </c>
       <c r="B6" t="s">
@@ -779,10 +798,10 @@
         <v>21</v>
       </c>
       <c r="L6" s="1">
-        <v>45724</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>45754</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>456</v>
       </c>
@@ -816,11 +835,11 @@
       <c r="K7" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="1">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L7" s="3">
+        <v>45750</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>456</v>
       </c>
@@ -854,11 +873,11 @@
       <c r="K8" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="1">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L8" s="3">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>456</v>
       </c>
@@ -892,11 +911,11 @@
       <c r="K9" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="1">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L9" s="3">
+        <v>45752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>456</v>
       </c>
@@ -930,11 +949,11 @@
       <c r="K10" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="1">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L10" s="3">
+        <v>45753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>456</v>
       </c>
@@ -968,11 +987,11 @@
       <c r="K11" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="1">
-        <v>45724</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L11" s="3">
+        <v>45754</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>789</v>
       </c>
@@ -995,10 +1014,10 @@
         <v>29</v>
       </c>
       <c r="H12">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J12" t="s">
         <v>30</v>
@@ -1006,11 +1025,11 @@
       <c r="K12" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="1">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L12" s="3">
+        <v>45750</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>789</v>
       </c>
@@ -1033,10 +1052,10 @@
         <v>29</v>
       </c>
       <c r="H13">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J13" t="s">
         <v>30</v>
@@ -1044,11 +1063,11 @@
       <c r="K13" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="1">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L13" s="3">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>789</v>
       </c>
@@ -1071,10 +1090,10 @@
         <v>29</v>
       </c>
       <c r="H14">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J14" t="s">
         <v>30</v>
@@ -1082,11 +1101,11 @@
       <c r="K14" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="1">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L14" s="3">
+        <v>45752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>789</v>
       </c>
@@ -1109,10 +1128,10 @@
         <v>29</v>
       </c>
       <c r="H15">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J15" t="s">
         <v>30</v>
@@ -1120,11 +1139,11 @@
       <c r="K15" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="1">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L15" s="3">
+        <v>45753</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>789</v>
       </c>
@@ -1147,10 +1166,10 @@
         <v>29</v>
       </c>
       <c r="H16">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J16" t="s">
         <v>30</v>
@@ -1158,22 +1177,22 @@
       <c r="K16" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="1">
-        <v>45724</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L16" s="3">
+        <v>45754</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
-        <v>666</v>
+        <v>908</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
         <v>17</v>
@@ -1182,36 +1201,36 @@
         <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I17">
         <v>8</v>
       </c>
       <c r="J17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K17" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="1">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="3">
+        <v>45750</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
-        <v>666</v>
+        <v>908</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
         <v>17</v>
@@ -1220,36 +1239,36 @@
         <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H18">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I18">
         <v>8</v>
       </c>
       <c r="J18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K18" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="1">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L18" s="3">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
-        <v>666</v>
+        <v>908</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
@@ -1258,36 +1277,36 @@
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H19">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I19">
         <v>8</v>
       </c>
       <c r="J19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="1">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L19" s="3">
+        <v>45752</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
-        <v>666</v>
+        <v>908</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
@@ -1296,36 +1315,36 @@
         <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H20">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I20">
         <v>8</v>
       </c>
       <c r="J20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K20" t="s">
         <v>31</v>
       </c>
-      <c r="L20" s="1">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L20" s="3">
+        <v>45753</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
-        <v>666</v>
+        <v>908</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
         <v>17</v>
@@ -1334,22 +1353,22 @@
         <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H21">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I21">
         <v>8</v>
       </c>
       <c r="J21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K21" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="1">
-        <v>45724</v>
+      <c r="L21" s="3">
+        <v>45754</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28627"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F284F951-CE1C-4104-8DF3-6BD4FE4A4BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7062A5AB-4B6C-4465-B881-817A1DBABCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="L17" sqref="L17:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -646,7 +646,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="1">
-        <v>45750</v>
+        <v>45719</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -684,7 +684,7 @@
         <v>21</v>
       </c>
       <c r="L3" s="1">
-        <v>45751</v>
+        <v>45720</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -722,7 +722,7 @@
         <v>21</v>
       </c>
       <c r="L4" s="1">
-        <v>45752</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -760,7 +760,7 @@
         <v>21</v>
       </c>
       <c r="L5" s="1">
-        <v>45753</v>
+        <v>45722</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -798,7 +798,7 @@
         <v>21</v>
       </c>
       <c r="L6" s="1">
-        <v>45754</v>
+        <v>45723</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -836,7 +836,7 @@
         <v>21</v>
       </c>
       <c r="L7" s="3">
-        <v>45750</v>
+        <v>45719</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -874,7 +874,7 @@
         <v>21</v>
       </c>
       <c r="L8" s="3">
-        <v>45751</v>
+        <v>45720</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -912,7 +912,7 @@
         <v>21</v>
       </c>
       <c r="L9" s="3">
-        <v>45752</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -950,7 +950,7 @@
         <v>21</v>
       </c>
       <c r="L10" s="3">
-        <v>45753</v>
+        <v>45722</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -988,7 +988,7 @@
         <v>21</v>
       </c>
       <c r="L11" s="3">
-        <v>45754</v>
+        <v>45723</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1026,7 +1026,7 @@
         <v>31</v>
       </c>
       <c r="L12" s="3">
-        <v>45750</v>
+        <v>45719</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1064,7 +1064,7 @@
         <v>31</v>
       </c>
       <c r="L13" s="3">
-        <v>45751</v>
+        <v>45720</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1102,7 +1102,7 @@
         <v>31</v>
       </c>
       <c r="L14" s="3">
-        <v>45752</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1140,7 +1140,7 @@
         <v>31</v>
       </c>
       <c r="L15" s="3">
-        <v>45753</v>
+        <v>45722</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1178,7 +1178,7 @@
         <v>31</v>
       </c>
       <c r="L16" s="3">
-        <v>45754</v>
+        <v>45723</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1216,7 +1216,7 @@
         <v>31</v>
       </c>
       <c r="L17" s="3">
-        <v>45750</v>
+        <v>45719</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1254,7 +1254,7 @@
         <v>31</v>
       </c>
       <c r="L18" s="3">
-        <v>45751</v>
+        <v>45720</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1292,7 +1292,7 @@
         <v>31</v>
       </c>
       <c r="L19" s="3">
-        <v>45752</v>
+        <v>45721</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1330,7 +1330,7 @@
         <v>31</v>
       </c>
       <c r="L20" s="3">
-        <v>45753</v>
+        <v>45722</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1368,7 +1368,7 @@
         <v>31</v>
       </c>
       <c r="L21" s="3">
-        <v>45754</v>
+        <v>45723</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -31,121 +31,139 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="36">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Middle Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Nationality</t>
-  </si>
-  <si>
-    <t>Departement</t>
-  </si>
-  <si>
-    <t>org code</t>
-  </si>
-  <si>
-    <t>Grade Code</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Employee Type</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>signInTime</t>
-  </si>
-  <si>
-    <t>signOutTime</t>
-  </si>
-  <si>
-    <t>Noura</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Saudi</t>
-  </si>
-  <si>
-    <t>PD&amp;ED</t>
-  </si>
-  <si>
-    <t>Dhahran</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>Nouf</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
-    <t>Riyadh</t>
-  </si>
-  <si>
-    <t>Lama</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>T&amp;R</t>
-  </si>
-  <si>
-    <t>Jeddah</t>
-  </si>
-  <si>
-    <t>Contractor</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>D&amp;R</t>
-  </si>
-  <si>
-    <t>Mubaraaz</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="42">
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nationality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signInTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signOutTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD&amp;ED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhahran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riyadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T&amp;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeddah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contractor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D&amp;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mubaraaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03-03-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:41 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:41 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +177,8 @@
       <name val="Aptos Narrow"/>
       <charset val="1"/>
     </font>
+    <font/>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -180,13 +200,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,829 +574,871 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17:L21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.71" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.86" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.86" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.57" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.86" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.43" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.86" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2">
+    <row r="2">
+      <c r="A2" s="0">
         <v>123</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>90</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L2" s="1">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="2">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
         <v>123</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>90</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="1">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="2">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
         <v>123</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>90</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>11</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="1">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="2">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
         <v>123</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>90</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>11</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="1">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="2">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
         <v>123</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0">
         <v>90</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0">
         <v>11</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L6" s="1">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7">
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
         <v>456</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0">
         <v>78</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0">
         <v>9</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="3">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
         <v>456</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0">
         <v>78</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0">
         <v>9</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="3">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
         <v>456</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0">
         <v>78</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0">
         <v>9</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="3">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
         <v>456</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="E10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="0">
         <v>78</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0">
         <v>9</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="3">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
         <v>456</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="E11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="0">
         <v>78</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="0">
         <v>9</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="3">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12">
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
         <v>789</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="E12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="0">
         <v>67</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="0">
         <v>7</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="3">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
         <v>789</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="E13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0">
         <v>67</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0">
         <v>7</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="3">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
         <v>789</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="E14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0">
         <v>67</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0">
         <v>7</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="3">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
         <v>789</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="E15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0">
         <v>67</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0">
         <v>7</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L15" s="3">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
         <v>789</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="E16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0">
         <v>67</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0">
         <v>7</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="3">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17">
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
         <v>908</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="E17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0">
         <v>56</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0">
         <v>8</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="3">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
         <v>908</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="E18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0">
         <v>56</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0">
         <v>8</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="3">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
         <v>908</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="E19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0">
         <v>56</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0">
         <v>8</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="3">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
         <v>908</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="E20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0">
         <v>56</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0">
         <v>8</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="3">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
         <v>908</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="E21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0">
         <v>56</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0">
         <v>8</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="3">
-        <v>45723</v>
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -153,10 +153,10 @@
     <t xml:space="preserve">03-03-2025</t>
   </si>
   <si>
-    <t xml:space="preserve">9:41 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:41 PM</t>
+    <t xml:space="preserve">9:46 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:46 PM</t>
   </si>
 </sst>
 </file>

--- a/test.xlsx
+++ b/test.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="47">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -157,13 +157,28 @@
   </si>
   <si>
     <t xml:space="preserve">12:46 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:53 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:53 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +192,8 @@
       <name val="Aptos Narrow"/>
       <charset val="1"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
   </fonts>
@@ -200,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -215,6 +232,16 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1441,6 +1468,50 @@
         <v>41</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28627"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7062A5AB-4B6C-4465-B881-817A1DBABCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E52DB64-0BF0-4FD3-8A38-D1E5D29C780E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,154 +31,124 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="47">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nationality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Departement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grade Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signInTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signOutTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD&amp;ED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhahran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nouf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R&amp;D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riyadh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T&amp;R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeddah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contractor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D&amp;R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mubaraaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03-03-2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:46 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:46 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:53 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2:53 PM</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="36">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Departement</t>
+  </si>
+  <si>
+    <t>org code</t>
+  </si>
+  <si>
+    <t>Grade Code</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Employee Type</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>signInTime</t>
+  </si>
+  <si>
+    <t>signOutTime</t>
+  </si>
+  <si>
+    <t>Noura</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Saudi</t>
+  </si>
+  <si>
+    <t>PD&amp;ED</t>
+  </si>
+  <si>
+    <t>Dhahran</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Nouf</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>Riyadh</t>
+  </si>
+  <si>
+    <t>Lama</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>T&amp;R</t>
+  </si>
+  <si>
+    <t>Jeddah</t>
+  </si>
+  <si>
+    <t>Contractor</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>D&amp;R</t>
+  </si>
+  <si>
+    <t>Mubaraaz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,10 +162,6 @@
       <name val="Aptos Narrow"/>
       <charset val="1"/>
     </font>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -217,31 +183,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,915 +549,829 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.71" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.86" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.86" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.71" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.57" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.86" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.43" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.86" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0">
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
         <v>123</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>90</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>11</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1">
-        <v>45719.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
+      <c r="L2" s="2">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
         <v>123</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>90</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I3">
         <v>11</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="1">
-        <v>45720.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
+      <c r="L3" s="2">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
         <v>123</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="0" t="s">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>90</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I4">
         <v>11</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="1">
-        <v>45721.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
+      <c r="L4" s="2">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
         <v>123</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="0" t="s">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>90</v>
       </c>
-      <c r="I5" s="0">
+      <c r="I5">
         <v>11</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="1">
-        <v>45722.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
+      <c r="L5" s="2">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
         <v>123</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="0" t="s">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="0">
+      <c r="H6">
         <v>90</v>
       </c>
-      <c r="I6" s="0">
+      <c r="I6">
         <v>11</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="1">
-        <v>45723.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
+      <c r="L6" s="2">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
         <v>456</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="0" t="s">
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="0">
+      <c r="H7">
         <v>78</v>
       </c>
-      <c r="I7" s="0">
+      <c r="I7">
         <v>9</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="3">
-        <v>45719.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
         <v>456</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="0" t="s">
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="0">
+      <c r="H8">
         <v>78</v>
       </c>
-      <c r="I8" s="0">
+      <c r="I8">
         <v>9</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="3">
-        <v>45720.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
         <v>456</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="0" t="s">
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="0">
+      <c r="H9">
         <v>78</v>
       </c>
-      <c r="I9" s="0">
+      <c r="I9">
         <v>9</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="K9" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="3">
-        <v>45721.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
         <v>456</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="0" t="s">
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="0">
+      <c r="H10">
         <v>78</v>
       </c>
-      <c r="I10" s="0">
+      <c r="I10">
         <v>9</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="3">
-        <v>45722.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
         <v>456</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="0" t="s">
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="0">
+      <c r="H11">
         <v>78</v>
       </c>
-      <c r="I11" s="0">
+      <c r="I11">
         <v>9</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="3">
-        <v>45723.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
         <v>789</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="0" t="s">
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="0">
+      <c r="H12">
         <v>67</v>
       </c>
-      <c r="I12" s="0">
+      <c r="I12">
         <v>7</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="J12" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="K12" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="3">
-        <v>45719.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
         <v>789</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="0" t="s">
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13">
         <v>67</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13">
         <v>7</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="J13" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="K13" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="3">
-        <v>45720.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
         <v>789</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="0" t="s">
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="0">
+      <c r="H14">
         <v>67</v>
       </c>
-      <c r="I14" s="0">
+      <c r="I14">
         <v>7</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="K14" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="3">
-        <v>45721.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
         <v>789</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="0" t="s">
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="0">
+      <c r="H15">
         <v>67</v>
       </c>
-      <c r="I15" s="0">
+      <c r="I15">
         <v>7</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="J15" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="0" t="s">
+      <c r="K15" t="s">
         <v>31</v>
       </c>
       <c r="L15" s="3">
-        <v>45722.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
         <v>789</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="0" t="s">
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="0">
+      <c r="H16">
         <v>67</v>
       </c>
-      <c r="I16" s="0">
+      <c r="I16">
         <v>7</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="K16" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="3">
-        <v>45723.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
         <v>908</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="0" t="s">
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="0">
+      <c r="H17">
         <v>56</v>
       </c>
-      <c r="I17" s="0">
+      <c r="I17">
         <v>8</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="J17" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="K17" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="3">
-        <v>45719.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
         <v>908</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="0" t="s">
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="0">
+      <c r="H18">
         <v>56</v>
       </c>
-      <c r="I18" s="0">
+      <c r="I18">
         <v>8</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="K18" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="3">
-        <v>45720.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
         <v>908</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="0" t="s">
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="0">
+      <c r="H19">
         <v>56</v>
       </c>
-      <c r="I19" s="0">
+      <c r="I19">
         <v>8</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="J19" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="K19" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="3">
-        <v>45721.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
         <v>908</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="0" t="s">
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="0">
+      <c r="H20">
         <v>56</v>
       </c>
-      <c r="I20" s="0">
+      <c r="I20">
         <v>8</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="J20" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="K20" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="3">
-        <v>45722.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
         <v>908</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="0" t="s">
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="0">
+      <c r="H21">
         <v>56</v>
       </c>
-      <c r="I21" s="0">
+      <c r="I21">
         <v>8</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="J21" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="0" t="s">
+      <c r="K21" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="3">
-        <v>45723.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M23" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="N23" s="16" t="s">
-        <v>46</v>
+        <v>45723</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -31,114 +31,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="36">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Middle Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Nationality</t>
-  </si>
-  <si>
-    <t>Departement</t>
-  </si>
-  <si>
-    <t>org code</t>
-  </si>
-  <si>
-    <t>Grade Code</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Employee Type</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>signInTime</t>
-  </si>
-  <si>
-    <t>signOutTime</t>
-  </si>
-  <si>
-    <t>Noura</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Saudi</t>
-  </si>
-  <si>
-    <t>PD&amp;ED</t>
-  </si>
-  <si>
-    <t>Dhahran</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>Nouf</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
-    <t>Riyadh</t>
-  </si>
-  <si>
-    <t>Lama</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>T&amp;R</t>
-  </si>
-  <si>
-    <t>Jeddah</t>
-  </si>
-  <si>
-    <t>Contractor</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>D&amp;R</t>
-  </si>
-  <si>
-    <t>Mubaraaz</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="42">
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nationality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signInTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signOutTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD&amp;ED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhahran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riyadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T&amp;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeddah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contractor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D&amp;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mubaraaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03-03-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:38 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:38 PM</t>
   </si>
 </sst>
 </file>
@@ -148,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +180,8 @@
       <name val="Aptos Narrow"/>
       <charset val="1"/>
     </font>
+    <font/>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -183,13 +203,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,829 +577,871 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.71" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.86" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.86" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.57" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.86" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.43" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.86" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
+    <row r="2">
+      <c r="A2" s="0">
         <v>123</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>90</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L2" s="2">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
         <v>123</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>90</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="2">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
         <v>123</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>90</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>11</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="2">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
         <v>123</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>90</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>11</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="2">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
         <v>123</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0">
         <v>90</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0">
         <v>11</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L6" s="2">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7">
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
         <v>456</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0">
         <v>78</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0">
         <v>9</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="3">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
         <v>456</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0">
         <v>78</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0">
         <v>9</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="3">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
         <v>456</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0">
         <v>78</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0">
         <v>9</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="3">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
         <v>456</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="E10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="0">
         <v>78</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0">
         <v>9</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="3">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
         <v>456</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="E11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="0">
         <v>78</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="0">
         <v>9</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="3">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12">
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
         <v>789</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="E12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="0">
         <v>67</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="0">
         <v>7</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="3">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
         <v>789</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="E13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0">
         <v>67</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0">
         <v>7</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="3">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
         <v>789</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="E14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0">
         <v>67</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0">
         <v>7</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="3">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
         <v>789</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="E15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0">
         <v>67</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0">
         <v>7</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L15" s="3">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
         <v>789</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="E16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0">
         <v>67</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0">
         <v>7</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="3">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17">
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
         <v>908</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="E17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0">
         <v>56</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0">
         <v>8</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="3">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
         <v>908</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="E18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0">
         <v>56</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0">
         <v>8</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="3">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
         <v>908</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="E19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0">
         <v>56</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0">
         <v>8</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="3">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
         <v>908</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="E20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0">
         <v>56</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0">
         <v>8</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="3">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
         <v>908</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="E21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0">
         <v>56</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0">
         <v>8</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="3">
-        <v>45723</v>
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28627"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E52DB64-0BF0-4FD3-8A38-D1E5D29C780E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D94D139C-5C32-4959-98A7-25BCC9D933C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,132 +31,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="42">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nationality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Departement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grade Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signInTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signOutTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD&amp;ED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhahran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nouf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R&amp;D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riyadh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T&amp;R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeddah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contractor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D&amp;R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mubaraaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03-03-2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:38 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:38 PM</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="36">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Departement</t>
+  </si>
+  <si>
+    <t>org code</t>
+  </si>
+  <si>
+    <t>Grade Code</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Employee Type</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>signInTime</t>
+  </si>
+  <si>
+    <t>signOutTime</t>
+  </si>
+  <si>
+    <t>Noura</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Saudi</t>
+  </si>
+  <si>
+    <t>PD&amp;ED</t>
+  </si>
+  <si>
+    <t>Dhahran</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Nouf</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>Riyadh</t>
+  </si>
+  <si>
+    <t>Lama</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>T&amp;R</t>
+  </si>
+  <si>
+    <t>Jeddah</t>
+  </si>
+  <si>
+    <t>Contractor</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>D&amp;R</t>
+  </si>
+  <si>
+    <t>Mubaraaz</t>
   </si>
 </sst>
 </file>
@@ -164,9 +146,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,14 +156,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF242424"/>
-      <name val="Aptos Narrow"/>
-      <charset val="1"/>
-    </font>
-    <font/>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -203,21 +177,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,871 +542,829 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17:L21"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.71" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.86" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.86" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.71" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.57" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.86" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.43" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.86" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0">
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
         <v>123</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>90</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>11</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
       <c r="L2" s="2">
-        <v>45719.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
         <v>123</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>90</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I3">
         <v>11</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="2">
-        <v>45720.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
         <v>123</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="0" t="s">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>90</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I4">
         <v>11</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="2">
-        <v>45721.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
         <v>123</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="0" t="s">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>90</v>
       </c>
-      <c r="I5" s="0">
+      <c r="I5">
         <v>11</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="2">
-        <v>45722.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
         <v>123</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="0" t="s">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="0">
+      <c r="H6">
         <v>90</v>
       </c>
-      <c r="I6" s="0">
+      <c r="I6">
         <v>11</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" t="s">
         <v>21</v>
       </c>
       <c r="L6" s="2">
-        <v>45723.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
         <v>456</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="0" t="s">
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="0">
+      <c r="H7">
         <v>78</v>
       </c>
-      <c r="I7" s="0">
+      <c r="I7">
         <v>9</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="3">
-        <v>45719.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
+      <c r="L7" s="2">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
         <v>456</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="0" t="s">
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="0">
+      <c r="H8">
         <v>78</v>
       </c>
-      <c r="I8" s="0">
+      <c r="I8">
         <v>9</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="3">
-        <v>45720.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
+      <c r="L8" s="2">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
         <v>456</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="0" t="s">
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="0">
+      <c r="H9">
         <v>78</v>
       </c>
-      <c r="I9" s="0">
+      <c r="I9">
         <v>9</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="K9" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="3">
-        <v>45721.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
+      <c r="L9" s="2">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
         <v>456</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="0" t="s">
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="0">
+      <c r="H10">
         <v>78</v>
       </c>
-      <c r="I10" s="0">
+      <c r="I10">
         <v>9</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="3">
-        <v>45722.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
+      <c r="L10" s="2">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
         <v>456</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="0" t="s">
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="0">
+      <c r="H11">
         <v>78</v>
       </c>
-      <c r="I11" s="0">
+      <c r="I11">
         <v>9</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="3">
-        <v>45723.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
+      <c r="L11" s="2">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
         <v>789</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="0" t="s">
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="0">
+      <c r="H12">
         <v>67</v>
       </c>
-      <c r="I12" s="0">
+      <c r="I12">
         <v>7</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="J12" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="K12" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="3">
-        <v>45719.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
+      <c r="L12" s="2">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
         <v>789</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="0" t="s">
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13">
         <v>67</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13">
         <v>7</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="J13" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="K13" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="3">
-        <v>45720.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
+      <c r="L13" s="2">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
         <v>789</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="0" t="s">
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="0">
+      <c r="H14">
         <v>67</v>
       </c>
-      <c r="I14" s="0">
+      <c r="I14">
         <v>7</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="K14" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="3">
-        <v>45721.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
+      <c r="L14" s="2">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
         <v>789</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="0" t="s">
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="0">
+      <c r="H15">
         <v>67</v>
       </c>
-      <c r="I15" s="0">
+      <c r="I15">
         <v>7</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="J15" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="0" t="s">
+      <c r="K15" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="3">
-        <v>45722.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
+      <c r="L15" s="2">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
         <v>789</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="0" t="s">
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="0">
+      <c r="H16">
         <v>67</v>
       </c>
-      <c r="I16" s="0">
+      <c r="I16">
         <v>7</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="K16" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="3">
-        <v>45723.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
+      <c r="L16" s="2">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
         <v>908</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="0" t="s">
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="0">
+      <c r="H17">
         <v>56</v>
       </c>
-      <c r="I17" s="0">
+      <c r="I17">
         <v>8</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="J17" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="K17" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="3">
-        <v>45719.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
+      <c r="L17" s="2">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
         <v>908</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="0" t="s">
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="0">
+      <c r="H18">
         <v>56</v>
       </c>
-      <c r="I18" s="0">
+      <c r="I18">
         <v>8</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="K18" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="3">
-        <v>45720.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
+      <c r="L18" s="2">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
         <v>908</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="0" t="s">
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="0">
+      <c r="H19">
         <v>56</v>
       </c>
-      <c r="I19" s="0">
+      <c r="I19">
         <v>8</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="J19" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="K19" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="3">
-        <v>45721.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
+      <c r="L19" s="2">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
         <v>908</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="0" t="s">
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="0">
+      <c r="H20">
         <v>56</v>
       </c>
-      <c r="I20" s="0">
+      <c r="I20">
         <v>8</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="J20" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="K20" t="s">
         <v>31</v>
       </c>
-      <c r="L20" s="3">
-        <v>45722.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
+      <c r="L20" s="2">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
         <v>908</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="0" t="s">
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="0">
+      <c r="H21">
         <v>56</v>
       </c>
-      <c r="I21" s="0">
+      <c r="I21">
         <v>8</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="J21" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="0" t="s">
+      <c r="K21" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="3">
-        <v>45723.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>41</v>
+      <c r="L21" s="2">
+        <v>45723</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -31,114 +31,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="36">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Middle Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Nationality</t>
-  </si>
-  <si>
-    <t>Departement</t>
-  </si>
-  <si>
-    <t>org code</t>
-  </si>
-  <si>
-    <t>Grade Code</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Employee Type</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>signInTime</t>
-  </si>
-  <si>
-    <t>signOutTime</t>
-  </si>
-  <si>
-    <t>Noura</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Saudi</t>
-  </si>
-  <si>
-    <t>PD&amp;ED</t>
-  </si>
-  <si>
-    <t>Dhahran</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>Nouf</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
-    <t>Riyadh</t>
-  </si>
-  <si>
-    <t>Lama</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>T&amp;R</t>
-  </si>
-  <si>
-    <t>Jeddah</t>
-  </si>
-  <si>
-    <t>Contractor</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>D&amp;R</t>
-  </si>
-  <si>
-    <t>Mubaraaz</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="42">
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nationality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signInTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signOutTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD&amp;ED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhahran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riyadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T&amp;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeddah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contractor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D&amp;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mubaraaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03-03-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:44 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:44 PM</t>
   </si>
 </sst>
 </file>
@@ -148,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +174,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -177,12 +197,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,829 +568,871 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17:L21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.71" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.86" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.86" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.57" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.86" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.43" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.86" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
+    <row r="2">
+      <c r="A2" s="0">
         <v>123</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>90</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L2" s="2">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
         <v>123</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>90</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="2">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
         <v>123</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>90</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>11</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="2">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
         <v>123</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>90</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>11</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="2">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
         <v>123</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0">
         <v>90</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0">
         <v>11</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L6" s="2">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7">
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
         <v>456</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0">
         <v>78</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0">
         <v>9</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="2">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
         <v>456</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0">
         <v>78</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0">
         <v>9</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="2">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
         <v>456</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0">
         <v>78</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0">
         <v>9</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="2">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
         <v>456</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="E10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="0">
         <v>78</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0">
         <v>9</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="2">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
         <v>456</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="E11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="0">
         <v>78</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="0">
         <v>9</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="2">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12">
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
         <v>789</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="E12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="0">
         <v>67</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="0">
         <v>7</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="2">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
         <v>789</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="E13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0">
         <v>67</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0">
         <v>7</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="2">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
         <v>789</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="E14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0">
         <v>67</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0">
         <v>7</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="2">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
         <v>789</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="E15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0">
         <v>67</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0">
         <v>7</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L15" s="2">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
         <v>789</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="E16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0">
         <v>67</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0">
         <v>7</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="2">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17">
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
         <v>908</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="E17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0">
         <v>56</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0">
         <v>8</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="2">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
         <v>908</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="E18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0">
         <v>56</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0">
         <v>8</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="2">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
         <v>908</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="E19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0">
         <v>56</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0">
         <v>8</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="2">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
         <v>908</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="E20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0">
         <v>56</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0">
         <v>8</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="2">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
         <v>908</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="E21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0">
         <v>56</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0">
         <v>8</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="2">
-        <v>45723</v>
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -153,10 +153,10 @@
     <t xml:space="preserve">03-03-2025</t>
   </si>
   <si>
-    <t xml:space="preserve">10:44 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:44 PM</t>
+    <t xml:space="preserve">10:48 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:48 PM</t>
   </si>
 </sst>
 </file>

--- a/test.xlsx
+++ b/test.xlsx
@@ -153,10 +153,10 @@
     <t xml:space="preserve">03-03-2025</t>
   </si>
   <si>
-    <t xml:space="preserve">10:48 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:48 PM</t>
+    <t xml:space="preserve">12:52 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:52 PM</t>
   </si>
 </sst>
 </file>
@@ -166,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +174,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
   </fonts>
@@ -197,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -209,6 +211,14 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1428,10 +1438,10 @@
       <c r="L22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="M22" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="N22" s="12" t="s">
         <v>41</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="47">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -157,6 +157,21 @@
   </si>
   <si>
     <t xml:space="preserve">2:52 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:55 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:55 PM</t>
   </si>
 </sst>
 </file>
@@ -174,6 +189,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -199,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -211,6 +228,14 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -1438,11 +1463,55 @@
       <c r="L22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M22" s="12" t="s">
+      <c r="M22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="N22" s="12" t="s">
+      <c r="N22" s="5" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" s="20" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -31,147 +31,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="47">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nationality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Departement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grade Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signInTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signOutTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD&amp;ED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhahran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nouf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R&amp;D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riyadh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T&amp;R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeddah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contractor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D&amp;R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mubaraaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03-03-2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:52 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2:52 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:55 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:55 PM</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="36">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Departement</t>
+  </si>
+  <si>
+    <t>org code</t>
+  </si>
+  <si>
+    <t>Grade Code</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Employee Type</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>signInTime</t>
+  </si>
+  <si>
+    <t>signOutTime</t>
+  </si>
+  <si>
+    <t>Noura</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Saudi</t>
+  </si>
+  <si>
+    <t>PD&amp;ED</t>
+  </si>
+  <si>
+    <t>Dhahran</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Nouf</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>Riyadh</t>
+  </si>
+  <si>
+    <t>Lama</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>T&amp;R</t>
+  </si>
+  <si>
+    <t>Jeddah</t>
+  </si>
+  <si>
+    <t>Contractor</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>D&amp;R</t>
+  </si>
+  <si>
+    <t>Mubaraaz</t>
   </si>
 </sst>
 </file>
@@ -181,7 +148,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,12 +156,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -216,34 +177,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,915 +542,829 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17:L21"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.71" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.86" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.86" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.71" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.57" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.86" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.43" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.86" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0">
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
         <v>123</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>90</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>11</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
       <c r="L2" s="2">
-        <v>45719.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
         <v>123</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>90</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I3">
         <v>11</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="2">
-        <v>45720.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
         <v>123</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="0" t="s">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>90</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I4">
         <v>11</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="2">
-        <v>45721.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
         <v>123</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="0" t="s">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>90</v>
       </c>
-      <c r="I5" s="0">
+      <c r="I5">
         <v>11</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="2">
-        <v>45722.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
         <v>123</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="0" t="s">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="0">
+      <c r="H6">
         <v>90</v>
       </c>
-      <c r="I6" s="0">
+      <c r="I6">
         <v>11</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" t="s">
         <v>21</v>
       </c>
       <c r="L6" s="2">
-        <v>45723.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
         <v>456</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="0" t="s">
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="0">
+      <c r="H7">
         <v>78</v>
       </c>
-      <c r="I7" s="0">
+      <c r="I7">
         <v>9</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="2">
-        <v>45719.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
         <v>456</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="0" t="s">
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="0">
+      <c r="H8">
         <v>78</v>
       </c>
-      <c r="I8" s="0">
+      <c r="I8">
         <v>9</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="2">
-        <v>45720.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
         <v>456</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="0" t="s">
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="0">
+      <c r="H9">
         <v>78</v>
       </c>
-      <c r="I9" s="0">
+      <c r="I9">
         <v>9</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="K9" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="2">
-        <v>45721.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
         <v>456</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="0" t="s">
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="0">
+      <c r="H10">
         <v>78</v>
       </c>
-      <c r="I10" s="0">
+      <c r="I10">
         <v>9</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="2">
-        <v>45722.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
         <v>456</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="0" t="s">
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="0">
+      <c r="H11">
         <v>78</v>
       </c>
-      <c r="I11" s="0">
+      <c r="I11">
         <v>9</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="2">
-        <v>45723.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
         <v>789</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="0" t="s">
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="0">
+      <c r="H12">
         <v>67</v>
       </c>
-      <c r="I12" s="0">
+      <c r="I12">
         <v>7</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="J12" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="K12" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="2">
-        <v>45719.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
         <v>789</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="0" t="s">
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13">
         <v>67</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13">
         <v>7</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="J13" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="K13" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="2">
-        <v>45720.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
         <v>789</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="0" t="s">
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="0">
+      <c r="H14">
         <v>67</v>
       </c>
-      <c r="I14" s="0">
+      <c r="I14">
         <v>7</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="K14" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="2">
-        <v>45721.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
         <v>789</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="0" t="s">
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="0">
+      <c r="H15">
         <v>67</v>
       </c>
-      <c r="I15" s="0">
+      <c r="I15">
         <v>7</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="J15" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="0" t="s">
+      <c r="K15" t="s">
         <v>31</v>
       </c>
       <c r="L15" s="2">
-        <v>45722.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
         <v>789</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="0" t="s">
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="0">
+      <c r="H16">
         <v>67</v>
       </c>
-      <c r="I16" s="0">
+      <c r="I16">
         <v>7</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="K16" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="2">
-        <v>45723.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
         <v>908</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="0" t="s">
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="0">
+      <c r="H17">
         <v>56</v>
       </c>
-      <c r="I17" s="0">
+      <c r="I17">
         <v>8</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="J17" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="K17" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="2">
-        <v>45719.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
         <v>908</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="0" t="s">
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="0">
+      <c r="H18">
         <v>56</v>
       </c>
-      <c r="I18" s="0">
+      <c r="I18">
         <v>8</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="K18" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="2">
-        <v>45720.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
         <v>908</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="0" t="s">
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="0">
+      <c r="H19">
         <v>56</v>
       </c>
-      <c r="I19" s="0">
+      <c r="I19">
         <v>8</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="J19" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="K19" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="2">
-        <v>45721.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
         <v>908</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="0" t="s">
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="0">
+      <c r="H20">
         <v>56</v>
       </c>
-      <c r="I20" s="0">
+      <c r="I20">
         <v>8</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="J20" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="K20" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="2">
-        <v>45722.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
         <v>908</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="0" t="s">
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="0">
+      <c r="H21">
         <v>56</v>
       </c>
-      <c r="I21" s="0">
+      <c r="I21">
         <v>8</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="J21" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="0" t="s">
+      <c r="K21" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="2">
-        <v>45723.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="M23" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="N23" s="20" t="s">
-        <v>46</v>
+        <v>45723</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -31,114 +31,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="36">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Middle Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Nationality</t>
-  </si>
-  <si>
-    <t>Departement</t>
-  </si>
-  <si>
-    <t>org code</t>
-  </si>
-  <si>
-    <t>Grade Code</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Employee Type</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>signInTime</t>
-  </si>
-  <si>
-    <t>signOutTime</t>
-  </si>
-  <si>
-    <t>Noura</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Saudi</t>
-  </si>
-  <si>
-    <t>PD&amp;ED</t>
-  </si>
-  <si>
-    <t>Dhahran</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>Nouf</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
-    <t>Riyadh</t>
-  </si>
-  <si>
-    <t>Lama</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>T&amp;R</t>
-  </si>
-  <si>
-    <t>Jeddah</t>
-  </si>
-  <si>
-    <t>Contractor</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>D&amp;R</t>
-  </si>
-  <si>
-    <t>Mubaraaz</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="42">
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nationality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signInTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signOutTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD&amp;ED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhahran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riyadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T&amp;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeddah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contractor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D&amp;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mubaraaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03-03-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:11 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:11 PM</t>
   </si>
 </sst>
 </file>
@@ -148,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +174,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -177,12 +197,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,829 +568,871 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17:L21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.71" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.86" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.86" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.57" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.86" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.43" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.86" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
+    <row r="2">
+      <c r="A2" s="0">
         <v>123</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>90</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L2" s="2">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
         <v>123</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>90</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="2">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
         <v>123</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>90</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>11</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="2">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
         <v>123</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>90</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>11</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="2">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
         <v>123</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0">
         <v>90</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0">
         <v>11</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L6" s="2">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7">
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
         <v>456</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0">
         <v>78</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0">
         <v>9</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="2">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
         <v>456</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0">
         <v>78</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0">
         <v>9</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="2">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
         <v>456</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0">
         <v>78</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0">
         <v>9</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="2">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
         <v>456</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="E10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="0">
         <v>78</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0">
         <v>9</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="2">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
         <v>456</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="E11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="0">
         <v>78</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="0">
         <v>9</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="2">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12">
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
         <v>789</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="E12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="0">
         <v>67</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="0">
         <v>7</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="2">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
         <v>789</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="E13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0">
         <v>67</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0">
         <v>7</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="2">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
         <v>789</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="E14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0">
         <v>67</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0">
         <v>7</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="2">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
         <v>789</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="E15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0">
         <v>67</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0">
         <v>7</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L15" s="2">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
         <v>789</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="E16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0">
         <v>67</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0">
         <v>7</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="2">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17">
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
         <v>908</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="E17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0">
         <v>56</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0">
         <v>8</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="2">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
         <v>908</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="E18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0">
         <v>56</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0">
         <v>8</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="2">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
         <v>908</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="E19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0">
         <v>56</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0">
         <v>8</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="2">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
         <v>908</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="E20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0">
         <v>56</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0">
         <v>8</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="2">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
         <v>908</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="E21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0">
         <v>56</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0">
         <v>8</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="2">
-        <v>45723</v>
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -197,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -209,6 +209,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="48">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -157,6 +157,24 @@
   </si>
   <si>
     <t xml:space="preserve">3:11 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/03/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:16 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:17 PM</t>
   </si>
 </sst>
 </file>
@@ -166,7 +184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +192,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
   </fonts>
@@ -197,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -212,9 +232,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1441,6 +1463,50 @@
         <v>41</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/test.xlsx
+++ b/test.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="51">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t xml:space="preserve">6:17 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/03/03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:21 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:21 PM</t>
   </si>
 </sst>
 </file>
@@ -192,6 +201,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -217,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -229,6 +240,14 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -1464,47 +1483,91 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="12" t="s">
+      <c r="E23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="L23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M23" s="12" t="s">
+      <c r="M23" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N23" s="12" t="s">
+      <c r="N23" s="5" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" s="20" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28627"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D94D139C-5C32-4959-98A7-25BCC9D933C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AA55B98-AD62-4748-B880-2F66482CE5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,169 +31,125 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="51">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nationality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Departement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grade Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signInTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signOutTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD&amp;ED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhahran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nouf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R&amp;D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riyadh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T&amp;R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeddah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contractor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D&amp;R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mubaraaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03-03-2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:11 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3:11 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/03/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:16 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:17 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/03/03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:21 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:21 PM</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="36">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Departement</t>
+  </si>
+  <si>
+    <t>org code</t>
+  </si>
+  <si>
+    <t>Grade Code</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Employee Type</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>signInTime</t>
+  </si>
+  <si>
+    <t>signOutTime</t>
+  </si>
+  <si>
+    <t>Noura</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Saudi</t>
+  </si>
+  <si>
+    <t>PD&amp;ED</t>
+  </si>
+  <si>
+    <t>Dhahran</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Nouf</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>Riyadh</t>
+  </si>
+  <si>
+    <t>Lama</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>T&amp;R</t>
+  </si>
+  <si>
+    <t>Jeddah</t>
+  </si>
+  <si>
+    <t>Contractor</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>D&amp;R</t>
+  </si>
+  <si>
+    <t>Mubaraaz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,12 +157,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -228,34 +178,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,959 +544,829 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.71" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.86" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.86" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.71" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.57" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.86" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.43" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.86" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0">
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
         <v>123</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>90</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>11</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="2">
-        <v>45719.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
+      <c r="L2" s="3">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
         <v>123</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>90</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I3">
         <v>11</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="2">
-        <v>45720.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
         <v>123</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="0" t="s">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>90</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I4">
         <v>11</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="2">
-        <v>45721.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
         <v>123</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="0" t="s">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>90</v>
       </c>
-      <c r="I5" s="0">
+      <c r="I5">
         <v>11</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="2">
-        <v>45722.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
         <v>123</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="0" t="s">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="0">
+      <c r="H6">
         <v>90</v>
       </c>
-      <c r="I6" s="0">
+      <c r="I6">
         <v>11</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" t="s">
         <v>21</v>
       </c>
       <c r="L6" s="2">
-        <v>45723.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
         <v>456</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="0" t="s">
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="0">
+      <c r="H7">
         <v>78</v>
       </c>
-      <c r="I7" s="0">
+      <c r="I7">
         <v>9</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="2">
-        <v>45719.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
         <v>456</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="0" t="s">
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="0">
+      <c r="H8">
         <v>78</v>
       </c>
-      <c r="I8" s="0">
+      <c r="I8">
         <v>9</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="2">
-        <v>45720.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
         <v>456</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="0" t="s">
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="0">
+      <c r="H9">
         <v>78</v>
       </c>
-      <c r="I9" s="0">
+      <c r="I9">
         <v>9</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="K9" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="2">
-        <v>45721.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
         <v>456</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="0" t="s">
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="0">
+      <c r="H10">
         <v>78</v>
       </c>
-      <c r="I10" s="0">
+      <c r="I10">
         <v>9</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="2">
-        <v>45722.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
         <v>456</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="0" t="s">
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="0">
+      <c r="H11">
         <v>78</v>
       </c>
-      <c r="I11" s="0">
+      <c r="I11">
         <v>9</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="2">
-        <v>45723.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
         <v>789</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="0" t="s">
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="0">
+      <c r="H12">
         <v>67</v>
       </c>
-      <c r="I12" s="0">
+      <c r="I12">
         <v>7</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="J12" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="K12" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="2">
-        <v>45719.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
         <v>789</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="0" t="s">
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13">
         <v>67</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13">
         <v>7</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="J13" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="K13" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="2">
-        <v>45720.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
         <v>789</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="0" t="s">
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="0">
+      <c r="H14">
         <v>67</v>
       </c>
-      <c r="I14" s="0">
+      <c r="I14">
         <v>7</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="K14" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="2">
-        <v>45721.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
         <v>789</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="0" t="s">
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="0">
+      <c r="H15">
         <v>67</v>
       </c>
-      <c r="I15" s="0">
+      <c r="I15">
         <v>7</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="J15" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="0" t="s">
+      <c r="K15" t="s">
         <v>31</v>
       </c>
       <c r="L15" s="2">
-        <v>45722.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
         <v>789</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="0" t="s">
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="0">
+      <c r="H16">
         <v>67</v>
       </c>
-      <c r="I16" s="0">
+      <c r="I16">
         <v>7</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="K16" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="2">
-        <v>45723.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
         <v>908</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="0" t="s">
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="0">
+      <c r="H17">
         <v>56</v>
       </c>
-      <c r="I17" s="0">
+      <c r="I17">
         <v>8</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="J17" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="K17" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="2">
-        <v>45719.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
         <v>908</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="0" t="s">
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="0">
+      <c r="H18">
         <v>56</v>
       </c>
-      <c r="I18" s="0">
+      <c r="I18">
         <v>8</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="K18" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="2">
-        <v>45720.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
         <v>908</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="0" t="s">
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="0">
+      <c r="H19">
         <v>56</v>
       </c>
-      <c r="I19" s="0">
+      <c r="I19">
         <v>8</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="J19" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="K19" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="2">
-        <v>45721.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
         <v>908</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="0" t="s">
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="0">
+      <c r="H20">
         <v>56</v>
       </c>
-      <c r="I20" s="0">
+      <c r="I20">
         <v>8</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="J20" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="K20" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="2">
-        <v>45722.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
         <v>908</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="0" t="s">
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="0">
+      <c r="H21">
         <v>56</v>
       </c>
-      <c r="I21" s="0">
+      <c r="I21">
         <v>8</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="J21" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="0" t="s">
+      <c r="K21" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="2">
-        <v>45723.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="M24" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="N24" s="20" t="s">
-        <v>50</v>
+        <v>45723</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28627"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AA55B98-AD62-4748-B880-2F66482CE5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D94D139C-5C32-4959-98A7-25BCC9D933C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,125 +31,169 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="36">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Middle Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Nationality</t>
-  </si>
-  <si>
-    <t>Departement</t>
-  </si>
-  <si>
-    <t>org code</t>
-  </si>
-  <si>
-    <t>Grade Code</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Employee Type</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>signInTime</t>
-  </si>
-  <si>
-    <t>signOutTime</t>
-  </si>
-  <si>
-    <t>Noura</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Saudi</t>
-  </si>
-  <si>
-    <t>PD&amp;ED</t>
-  </si>
-  <si>
-    <t>Dhahran</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>Nouf</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
-    <t>Riyadh</t>
-  </si>
-  <si>
-    <t>Lama</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>T&amp;R</t>
-  </si>
-  <si>
-    <t>Jeddah</t>
-  </si>
-  <si>
-    <t>Contractor</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>D&amp;R</t>
-  </si>
-  <si>
-    <t>Mubaraaz</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="51">
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nationality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signInTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signOutTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD&amp;ED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhahran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riyadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T&amp;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeddah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contractor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D&amp;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mubaraaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03-03-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:11 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:11 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/03/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:16 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:17 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/03/03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:22 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:23 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +201,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -178,13 +228,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,829 +615,959 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.71" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.86" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.86" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.57" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.86" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.43" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.86" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
+    <row r="2">
+      <c r="A2" s="0">
         <v>123</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>90</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="3">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
+      <c r="L2" s="2">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
         <v>123</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>90</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="2">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
         <v>123</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>90</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>11</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="2">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
         <v>123</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>90</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>11</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="2">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
         <v>123</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0">
         <v>90</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0">
         <v>11</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L6" s="2">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7">
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
         <v>456</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0">
         <v>78</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0">
         <v>9</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="2">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
         <v>456</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0">
         <v>78</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0">
         <v>9</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="2">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
         <v>456</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0">
         <v>78</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0">
         <v>9</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="2">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
         <v>456</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="E10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="0">
         <v>78</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0">
         <v>9</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="2">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
         <v>456</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="E11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="0">
         <v>78</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="0">
         <v>9</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="2">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12">
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
         <v>789</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="E12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="0">
         <v>67</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="0">
         <v>7</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="2">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
         <v>789</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="E13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0">
         <v>67</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0">
         <v>7</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="2">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
         <v>789</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="E14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0">
         <v>67</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0">
         <v>7</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="2">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
         <v>789</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="E15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0">
         <v>67</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0">
         <v>7</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L15" s="2">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
         <v>789</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="E16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0">
         <v>67</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0">
         <v>7</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="2">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17">
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
         <v>908</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="E17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0">
         <v>56</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0">
         <v>8</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="2">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
         <v>908</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="E18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0">
         <v>56</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0">
         <v>8</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="2">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
         <v>908</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="E19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0">
         <v>56</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0">
         <v>8</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="2">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
         <v>908</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="E20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0">
         <v>56</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0">
         <v>8</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="2">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
         <v>908</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="E21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0">
         <v>56</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0">
         <v>8</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="2">
-        <v>45723</v>
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" s="20" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="53">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t xml:space="preserve">2:23 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:26 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:26 PM</t>
   </si>
 </sst>
 </file>
@@ -201,6 +207,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -228,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -240,6 +248,14 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -1527,47 +1543,91 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="20" t="s">
+      <c r="E24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J24" s="20" t="s">
+      <c r="J24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="20" t="s">
+      <c r="K24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="20" t="s">
+      <c r="L24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="M24" s="20" t="s">
+      <c r="M24" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N24" s="20" t="s">
+      <c r="N24" s="5" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="N25" s="28" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28627"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AA55B98-AD62-4748-B880-2F66482CE5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D94D139C-5C32-4959-98A7-25BCC9D933C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,125 +31,169 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="36">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Middle Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Nationality</t>
-  </si>
-  <si>
-    <t>Departement</t>
-  </si>
-  <si>
-    <t>org code</t>
-  </si>
-  <si>
-    <t>Grade Code</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Employee Type</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>signInTime</t>
-  </si>
-  <si>
-    <t>signOutTime</t>
-  </si>
-  <si>
-    <t>Noura</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Saudi</t>
-  </si>
-  <si>
-    <t>PD&amp;ED</t>
-  </si>
-  <si>
-    <t>Dhahran</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>Nouf</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
-    <t>Riyadh</t>
-  </si>
-  <si>
-    <t>Lama</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>T&amp;R</t>
-  </si>
-  <si>
-    <t>Jeddah</t>
-  </si>
-  <si>
-    <t>Contractor</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>D&amp;R</t>
-  </si>
-  <si>
-    <t>Mubaraaz</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="51">
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nationality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signInTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signOutTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD&amp;ED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhahran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riyadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T&amp;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeddah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contractor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D&amp;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mubaraaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03-03-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:28 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:28 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/03/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:16 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:17 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/03/03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:22 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:23 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +201,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -178,13 +230,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,829 +625,959 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.71" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.86" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.86" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.57" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.86" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.43" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.86" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
+    <row r="2">
+      <c r="A2" s="0">
         <v>123</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>90</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="3">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
+      <c r="L2" s="2">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
         <v>123</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>90</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="2">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
         <v>123</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>90</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>11</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="2">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
         <v>123</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>90</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>11</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="2">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
         <v>123</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0">
         <v>90</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0">
         <v>11</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L6" s="2">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7">
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
         <v>456</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0">
         <v>78</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0">
         <v>9</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="2">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
         <v>456</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0">
         <v>78</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0">
         <v>9</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="2">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
         <v>456</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0">
         <v>78</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0">
         <v>9</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="2">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
         <v>456</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="E10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="0">
         <v>78</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0">
         <v>9</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="2">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
         <v>456</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="E11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="0">
         <v>78</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="0">
         <v>9</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="2">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12">
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
         <v>789</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="E12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="0">
         <v>67</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="0">
         <v>7</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="2">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
         <v>789</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="E13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0">
         <v>67</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0">
         <v>7</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="2">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
         <v>789</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="E14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0">
         <v>67</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0">
         <v>7</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="2">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
         <v>789</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="E15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0">
         <v>67</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0">
         <v>7</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L15" s="2">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
         <v>789</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="E16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0">
         <v>67</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0">
         <v>7</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="2">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17">
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
         <v>908</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="E17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0">
         <v>56</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0">
         <v>8</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="2">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
         <v>908</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="E18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0">
         <v>56</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0">
         <v>8</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="2">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
         <v>908</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="E19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0">
         <v>56</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0">
         <v>8</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="2">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
         <v>908</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="E20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0">
         <v>56</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0">
         <v>8</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="2">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
         <v>908</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="E21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0">
         <v>56</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0">
         <v>8</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="2">
-        <v>45723</v>
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28627"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D94D139C-5C32-4959-98A7-25BCC9D933C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2D2EF78-5ED7-43FB-8361-A65D389CB202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,169 +31,125 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="51">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nationality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Departement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grade Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signInTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signOutTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD&amp;ED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhahran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nouf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R&amp;D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riyadh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T&amp;R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeddah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contractor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D&amp;R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mubaraaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03-03-2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:28 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2:28 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/03/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:16 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:17 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/03/03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:22 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2:23 PM</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="36">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Departement</t>
+  </si>
+  <si>
+    <t>org code</t>
+  </si>
+  <si>
+    <t>Grade Code</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Employee Type</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>signInTime</t>
+  </si>
+  <si>
+    <t>signOutTime</t>
+  </si>
+  <si>
+    <t>Noura</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Saudi</t>
+  </si>
+  <si>
+    <t>PD&amp;ED</t>
+  </si>
+  <si>
+    <t>Dhahran</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Nouf</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>Riyadh</t>
+  </si>
+  <si>
+    <t>Lama</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>T&amp;R</t>
+  </si>
+  <si>
+    <t>Jeddah</t>
+  </si>
+  <si>
+    <t>Contractor</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>D&amp;R</t>
+  </si>
+  <si>
+    <t>Mubaraaz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,14 +157,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -230,42 +178,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,959 +544,829 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L6"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.71" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.86" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.86" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.71" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.57" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.86" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.43" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.86" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0">
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
         <v>123</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>90</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>11</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="2">
-        <v>45719.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
+      <c r="L2" s="3">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
         <v>123</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>90</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I3">
         <v>11</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="2">
-        <v>45720.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
+      <c r="L3" s="3">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
         <v>123</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="0" t="s">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>90</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I4">
         <v>11</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="2">
-        <v>45721.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
+      <c r="L4" s="3">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
         <v>123</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="0" t="s">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>90</v>
       </c>
-      <c r="I5" s="0">
+      <c r="I5">
         <v>11</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="2">
-        <v>45722.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
+      <c r="L5" s="3">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
         <v>123</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="0" t="s">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="0">
+      <c r="H6">
         <v>90</v>
       </c>
-      <c r="I6" s="0">
+      <c r="I6">
         <v>11</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="2">
-        <v>45723.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
+      <c r="L6" s="3">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
         <v>456</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="0" t="s">
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="0">
+      <c r="H7">
         <v>78</v>
       </c>
-      <c r="I7" s="0">
+      <c r="I7">
         <v>9</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="2">
-        <v>45719.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
         <v>456</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="0" t="s">
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="0">
+      <c r="H8">
         <v>78</v>
       </c>
-      <c r="I8" s="0">
+      <c r="I8">
         <v>9</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="2">
-        <v>45720.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
         <v>456</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="0" t="s">
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="0">
+      <c r="H9">
         <v>78</v>
       </c>
-      <c r="I9" s="0">
+      <c r="I9">
         <v>9</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="K9" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="2">
-        <v>45721.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
         <v>456</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="0" t="s">
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="0">
+      <c r="H10">
         <v>78</v>
       </c>
-      <c r="I10" s="0">
+      <c r="I10">
         <v>9</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="2">
-        <v>45722.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
         <v>456</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="0" t="s">
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="0">
+      <c r="H11">
         <v>78</v>
       </c>
-      <c r="I11" s="0">
+      <c r="I11">
         <v>9</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="2">
-        <v>45723.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
         <v>789</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="0" t="s">
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="0">
+      <c r="H12">
         <v>67</v>
       </c>
-      <c r="I12" s="0">
+      <c r="I12">
         <v>7</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="J12" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="K12" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="2">
-        <v>45719.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
         <v>789</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="0" t="s">
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13">
         <v>67</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13">
         <v>7</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="J13" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="K13" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="2">
-        <v>45720.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
         <v>789</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="0" t="s">
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="0">
+      <c r="H14">
         <v>67</v>
       </c>
-      <c r="I14" s="0">
+      <c r="I14">
         <v>7</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="K14" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="2">
-        <v>45721.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
         <v>789</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="0" t="s">
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="0">
+      <c r="H15">
         <v>67</v>
       </c>
-      <c r="I15" s="0">
+      <c r="I15">
         <v>7</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="J15" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="0" t="s">
+      <c r="K15" t="s">
         <v>31</v>
       </c>
       <c r="L15" s="2">
-        <v>45722.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
         <v>789</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="0" t="s">
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="0">
+      <c r="H16">
         <v>67</v>
       </c>
-      <c r="I16" s="0">
+      <c r="I16">
         <v>7</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="K16" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="2">
-        <v>45723.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
         <v>908</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="0" t="s">
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="0">
+      <c r="H17">
         <v>56</v>
       </c>
-      <c r="I17" s="0">
+      <c r="I17">
         <v>8</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="J17" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="K17" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="2">
-        <v>45719.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
         <v>908</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="0" t="s">
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="0">
+      <c r="H18">
         <v>56</v>
       </c>
-      <c r="I18" s="0">
+      <c r="I18">
         <v>8</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="K18" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="2">
-        <v>45720.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
         <v>908</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="0" t="s">
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="0">
+      <c r="H19">
         <v>56</v>
       </c>
-      <c r="I19" s="0">
+      <c r="I19">
         <v>8</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="J19" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="K19" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="2">
-        <v>45721.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
         <v>908</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="0" t="s">
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="0">
+      <c r="H20">
         <v>56</v>
       </c>
-      <c r="I20" s="0">
+      <c r="I20">
         <v>8</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="J20" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="K20" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="2">
-        <v>45722.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
         <v>908</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="0" t="s">
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="0">
+      <c r="H21">
         <v>56</v>
       </c>
-      <c r="I21" s="0">
+      <c r="I21">
         <v>8</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="J21" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="0" t="s">
+      <c r="K21" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="2">
-        <v>45723.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="N22" s="28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>50</v>
+        <v>45723</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -31,114 +31,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="36">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Middle Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Nationality</t>
-  </si>
-  <si>
-    <t>Departement</t>
-  </si>
-  <si>
-    <t>org code</t>
-  </si>
-  <si>
-    <t>Grade Code</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Employee Type</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>signInTime</t>
-  </si>
-  <si>
-    <t>signOutTime</t>
-  </si>
-  <si>
-    <t>Noura</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Saudi</t>
-  </si>
-  <si>
-    <t>PD&amp;ED</t>
-  </si>
-  <si>
-    <t>Dhahran</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>Nouf</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
-    <t>Riyadh</t>
-  </si>
-  <si>
-    <t>Lama</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>T&amp;R</t>
-  </si>
-  <si>
-    <t>Jeddah</t>
-  </si>
-  <si>
-    <t>Contractor</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>D&amp;R</t>
-  </si>
-  <si>
-    <t>Mubaraaz</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="42">
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nationality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signInTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signOutTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD&amp;ED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhahran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riyadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T&amp;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeddah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contractor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D&amp;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mubaraaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03-03-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:31 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:31 PM</t>
   </si>
 </sst>
 </file>
@@ -149,7 +167,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +175,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -178,13 +198,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,829 +572,871 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.71" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.86" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.86" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.57" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.86" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.43" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.86" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
+    <row r="2">
+      <c r="A2" s="0">
         <v>123</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>90</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L2" s="3">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
         <v>123</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>90</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="3">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
         <v>123</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>90</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>11</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="3">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
         <v>123</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>90</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>11</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="3">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
         <v>123</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0">
         <v>90</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0">
         <v>11</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L6" s="3">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7">
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
         <v>456</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0">
         <v>78</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0">
         <v>9</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="2">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
         <v>456</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0">
         <v>78</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0">
         <v>9</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="2">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
         <v>456</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0">
         <v>78</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0">
         <v>9</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="2">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
         <v>456</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="E10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="0">
         <v>78</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0">
         <v>9</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="2">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
         <v>456</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="E11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="0">
         <v>78</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="0">
         <v>9</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="2">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12">
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
         <v>789</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="E12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="0">
         <v>67</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="0">
         <v>7</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="2">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
         <v>789</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="E13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0">
         <v>67</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0">
         <v>7</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="2">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
         <v>789</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="E14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0">
         <v>67</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0">
         <v>7</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="2">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
         <v>789</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="E15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0">
         <v>67</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0">
         <v>7</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L15" s="2">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
         <v>789</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="E16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0">
         <v>67</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0">
         <v>7</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="2">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17">
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
         <v>908</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="E17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0">
         <v>56</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0">
         <v>8</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="2">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
         <v>908</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="E18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0">
         <v>56</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0">
         <v>8</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="2">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
         <v>908</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="E19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0">
         <v>56</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0">
         <v>8</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="2">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
         <v>908</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="E20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0">
         <v>56</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0">
         <v>8</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="2">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
         <v>908</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="E21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0">
         <v>56</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0">
         <v>8</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="2">
-        <v>45723</v>
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28627"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2D2EF78-5ED7-43FB-8361-A65D389CB202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AA702B5-9B3C-4720-A670-668755AB1CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,143 +31,124 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="42">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nationality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Departement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grade Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signInTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signOutTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD&amp;ED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhahran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nouf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R&amp;D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riyadh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T&amp;R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeddah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contractor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D&amp;R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mubaraaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03-03-2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:31 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3:31 PM</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="36">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Departement</t>
+  </si>
+  <si>
+    <t>org code</t>
+  </si>
+  <si>
+    <t>Grade Code</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Employee Type</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>signInTime</t>
+  </si>
+  <si>
+    <t>signOutTime</t>
+  </si>
+  <si>
+    <t>Noura</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Saudi</t>
+  </si>
+  <si>
+    <t>PD&amp;ED</t>
+  </si>
+  <si>
+    <t>Dhahran</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Nouf</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>Riyadh</t>
+  </si>
+  <si>
+    <t>Lama</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>T&amp;R</t>
+  </si>
+  <si>
+    <t>Jeddah</t>
+  </si>
+  <si>
+    <t>Contractor</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>D&amp;R</t>
+  </si>
+  <si>
+    <t>Mubaraaz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,8 +156,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font/>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -198,21 +177,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,871 +542,829 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17:L21"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.71" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.86" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.86" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.71" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.57" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.86" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.43" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.86" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0">
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
         <v>123</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>90</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>11</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="3">
-        <v>45719.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
+      <c r="L2" s="2">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
         <v>123</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>90</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I3">
         <v>11</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="3">
-        <v>45720.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
+      <c r="L3" s="2">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
         <v>123</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="0" t="s">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>90</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I4">
         <v>11</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="3">
-        <v>45721.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
+      <c r="L4" s="2">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
         <v>123</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="0" t="s">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>90</v>
       </c>
-      <c r="I5" s="0">
+      <c r="I5">
         <v>11</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="3">
-        <v>45722.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
+      <c r="L5" s="2">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
         <v>123</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="0" t="s">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="0">
+      <c r="H6">
         <v>90</v>
       </c>
-      <c r="I6" s="0">
+      <c r="I6">
         <v>11</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="3">
-        <v>45723.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
+      <c r="L6" s="2">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
         <v>456</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="0" t="s">
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="0">
+      <c r="H7">
         <v>78</v>
       </c>
-      <c r="I7" s="0">
+      <c r="I7">
         <v>9</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="2">
-        <v>45719.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
         <v>456</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="0" t="s">
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="0">
+      <c r="H8">
         <v>78</v>
       </c>
-      <c r="I8" s="0">
+      <c r="I8">
         <v>9</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="2">
-        <v>45720.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
         <v>456</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="0" t="s">
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="0">
+      <c r="H9">
         <v>78</v>
       </c>
-      <c r="I9" s="0">
+      <c r="I9">
         <v>9</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="K9" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="2">
-        <v>45721.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
         <v>456</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="0" t="s">
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="0">
+      <c r="H10">
         <v>78</v>
       </c>
-      <c r="I10" s="0">
+      <c r="I10">
         <v>9</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="2">
-        <v>45722.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
         <v>456</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="0" t="s">
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="0">
+      <c r="H11">
         <v>78</v>
       </c>
-      <c r="I11" s="0">
+      <c r="I11">
         <v>9</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="2">
-        <v>45723.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
         <v>789</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="0" t="s">
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="0">
+      <c r="H12">
         <v>67</v>
       </c>
-      <c r="I12" s="0">
+      <c r="I12">
         <v>7</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="J12" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="K12" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="2">
-        <v>45719.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
         <v>789</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="0" t="s">
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13">
         <v>67</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13">
         <v>7</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="J13" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="K13" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="2">
-        <v>45720.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
         <v>789</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="0" t="s">
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="0">
+      <c r="H14">
         <v>67</v>
       </c>
-      <c r="I14" s="0">
+      <c r="I14">
         <v>7</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="K14" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="2">
-        <v>45721.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
         <v>789</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="0" t="s">
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="0">
+      <c r="H15">
         <v>67</v>
       </c>
-      <c r="I15" s="0">
+      <c r="I15">
         <v>7</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="J15" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="0" t="s">
+      <c r="K15" t="s">
         <v>31</v>
       </c>
       <c r="L15" s="2">
-        <v>45722.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
         <v>789</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="0" t="s">
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="0">
+      <c r="H16">
         <v>67</v>
       </c>
-      <c r="I16" s="0">
+      <c r="I16">
         <v>7</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="K16" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="2">
-        <v>45723.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
         <v>908</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="0" t="s">
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="0">
+      <c r="H17">
         <v>56</v>
       </c>
-      <c r="I17" s="0">
+      <c r="I17">
         <v>8</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="J17" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="K17" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="2">
-        <v>45719.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
         <v>908</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="0" t="s">
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="0">
+      <c r="H18">
         <v>56</v>
       </c>
-      <c r="I18" s="0">
+      <c r="I18">
         <v>8</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="K18" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="2">
-        <v>45720.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
         <v>908</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="0" t="s">
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="0">
+      <c r="H19">
         <v>56</v>
       </c>
-      <c r="I19" s="0">
+      <c r="I19">
         <v>8</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="J19" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="K19" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="2">
-        <v>45721.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
         <v>908</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="0" t="s">
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="0">
+      <c r="H20">
         <v>56</v>
       </c>
-      <c r="I20" s="0">
+      <c r="I20">
         <v>8</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="J20" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="K20" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="2">
-        <v>45722.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
         <v>908</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="0" t="s">
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="0">
+      <c r="H21">
         <v>56</v>
       </c>
-      <c r="I21" s="0">
+      <c r="I21">
         <v>8</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="J21" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="0" t="s">
+      <c r="K21" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="2">
-        <v>45723.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>41</v>
+        <v>45723</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -31,114 +31,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="36">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Middle Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Nationality</t>
-  </si>
-  <si>
-    <t>Departement</t>
-  </si>
-  <si>
-    <t>org code</t>
-  </si>
-  <si>
-    <t>Grade Code</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Employee Type</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>signInTime</t>
-  </si>
-  <si>
-    <t>signOutTime</t>
-  </si>
-  <si>
-    <t>Noura</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Saudi</t>
-  </si>
-  <si>
-    <t>PD&amp;ED</t>
-  </si>
-  <si>
-    <t>Dhahran</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>Nouf</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
-    <t>Riyadh</t>
-  </si>
-  <si>
-    <t>Lama</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>T&amp;R</t>
-  </si>
-  <si>
-    <t>Jeddah</t>
-  </si>
-  <si>
-    <t>Contractor</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>D&amp;R</t>
-  </si>
-  <si>
-    <t>Mubaraaz</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="42">
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nationality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signInTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signOutTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD&amp;ED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhahran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riyadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T&amp;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeddah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contractor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D&amp;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mubaraaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:36 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:36 PM</t>
   </si>
 </sst>
 </file>
@@ -148,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +174,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -177,12 +197,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,829 +568,871 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17:L21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.71" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.86" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.86" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.57" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.86" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.43" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.86" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
+    <row r="2">
+      <c r="A2" s="0">
         <v>123</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>90</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L2" s="2">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
         <v>123</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>90</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="2">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
         <v>123</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>90</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>11</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="2">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
         <v>123</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>90</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>11</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="2">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
         <v>123</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0">
         <v>90</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0">
         <v>11</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L6" s="2">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7">
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
         <v>456</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0">
         <v>78</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0">
         <v>9</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="2">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
         <v>456</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0">
         <v>78</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0">
         <v>9</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="2">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
         <v>456</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0">
         <v>78</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0">
         <v>9</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="2">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
         <v>456</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="E10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="0">
         <v>78</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0">
         <v>9</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="2">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
         <v>456</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="E11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="0">
         <v>78</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="0">
         <v>9</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="2">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12">
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
         <v>789</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="E12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="0">
         <v>67</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="0">
         <v>7</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="2">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
         <v>789</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="E13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0">
         <v>67</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0">
         <v>7</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="2">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
         <v>789</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="E14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0">
         <v>67</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0">
         <v>7</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="2">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
         <v>789</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="E15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0">
         <v>67</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0">
         <v>7</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L15" s="2">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
         <v>789</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="E16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0">
         <v>67</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0">
         <v>7</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="2">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17">
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
         <v>908</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="E17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0">
         <v>56</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0">
         <v>8</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="2">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
         <v>908</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="E18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0">
         <v>56</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0">
         <v>8</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="2">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
         <v>908</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="E19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0">
         <v>56</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0">
         <v>8</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="2">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
         <v>908</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="E20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0">
         <v>56</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0">
         <v>8</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="2">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
         <v>908</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="E21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0">
         <v>56</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0">
         <v>8</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="2">
-        <v>45723</v>
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -153,10 +153,10 @@
     <t xml:space="preserve">2025-03-03</t>
   </si>
   <si>
-    <t xml:space="preserve">11:36 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2:36 PM</t>
+    <t xml:space="preserve">12:48 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:48 PM</t>
   </si>
 </sst>
 </file>

--- a/test.xlsx
+++ b/test.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="45">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -157,6 +157,15 @@
   </si>
   <si>
     <t xml:space="preserve">1:48 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:00 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:00 AM</t>
   </si>
 </sst>
 </file>
@@ -166,7 +175,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +183,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
   </fonts>
@@ -197,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -209,6 +220,14 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1435,6 +1454,50 @@
         <v>41</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/test.xlsx
+++ b/test.xlsx
@@ -162,10 +162,10 @@
     <t xml:space="preserve">2025-03-04</t>
   </si>
   <si>
-    <t xml:space="preserve">12:00 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:00 AM</t>
+    <t xml:space="preserve">12:08 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:08 AM</t>
   </si>
 </sst>
 </file>
@@ -183,6 +183,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -208,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -220,6 +222,14 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -1455,46 +1465,46 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="12" t="s">
+      <c r="E23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="L23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M23" s="12" t="s">
+      <c r="M23" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="N23" s="12" t="s">
+      <c r="N23" s="20" t="s">
         <v>44</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -162,10 +162,10 @@
     <t xml:space="preserve">2025-03-04</t>
   </si>
   <si>
-    <t xml:space="preserve">12:08 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3:08 AM</t>
+    <t xml:space="preserve">12:13 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:13 AM</t>
   </si>
 </sst>
 </file>
@@ -183,6 +183,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
     <font/>
     <font/>
     <font/>
@@ -210,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -222,6 +224,14 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -1501,10 +1511,10 @@
       <c r="L23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M23" s="20" t="s">
+      <c r="M23" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="N23" s="20" t="s">
+      <c r="N23" s="28" t="s">
         <v>44</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28627"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97FD0AD7-A0A0-446D-AE35-510D6BB838DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE7B7006-75FD-452E-919F-8162E5E6BEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,8 +145,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -183,7 +184,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28627"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE7B7006-75FD-452E-919F-8162E5E6BEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{366AC90E-4E2D-4D2A-B451-774AACCD1EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -646,12 +646,8 @@
       <c r="L2" s="2">
         <v>45719</v>
       </c>
-      <c r="M2" s="3">
-        <v>0.90694444444444444</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0.53194444444444444</v>
-      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3">

--- a/test.xlsx
+++ b/test.xlsx
@@ -31,114 +31,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Middle Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Nationality</t>
-  </si>
-  <si>
-    <t>Departement</t>
-  </si>
-  <si>
-    <t>org code</t>
-  </si>
-  <si>
-    <t>Grade Code</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Employee Type</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>signInTime</t>
-  </si>
-  <si>
-    <t>signOutTime</t>
-  </si>
-  <si>
-    <t>Noura</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Saudi</t>
-  </si>
-  <si>
-    <t>PD&amp;ED</t>
-  </si>
-  <si>
-    <t>Dhahran</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>Nouf</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
-    <t>Riyadh</t>
-  </si>
-  <si>
-    <t>Lama</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>T&amp;R</t>
-  </si>
-  <si>
-    <t>Jeddah</t>
-  </si>
-  <si>
-    <t>Contractor</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>D&amp;R</t>
-  </si>
-  <si>
-    <t>Mubaraaz</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nationality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signInTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signOutTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD&amp;ED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhahran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riyadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T&amp;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeddah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contractor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D&amp;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mubaraaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04-03-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:55 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:55 AM</t>
   </si>
 </sst>
 </file>
@@ -149,7 +167,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +175,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -178,13 +198,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,223 +572,265 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.71" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.86" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.86" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.57" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.86" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.43" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.86" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
+    <row r="2">
+      <c r="A2" s="0">
         <v>123</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>90</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L2" s="2">
-        <v>45719</v>
+        <v>45719.0</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" s="0">
         <v>456</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>78</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>9</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="2">
-        <v>45719</v>
+        <v>45719.0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" s="0">
         <v>789</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>67</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>7</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L4" s="2">
-        <v>45719</v>
+        <v>45719.0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" s="0">
         <v>908</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>56</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>8</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="2">
-        <v>45719</v>
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28627"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{366AC90E-4E2D-4D2A-B451-774AACCD1EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D94D139C-5C32-4959-98A7-25BCC9D933C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,143 +31,124 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nationality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Departement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grade Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signInTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signOutTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD&amp;ED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhahran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nouf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R&amp;D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riyadh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T&amp;R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeddah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contractor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D&amp;R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mubaraaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04-03-2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:55 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2:55 AM</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="36">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Departement</t>
+  </si>
+  <si>
+    <t>org code</t>
+  </si>
+  <si>
+    <t>Grade Code</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Employee Type</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>signInTime</t>
+  </si>
+  <si>
+    <t>signOutTime</t>
+  </si>
+  <si>
+    <t>Noura</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Saudi</t>
+  </si>
+  <si>
+    <t>PD&amp;ED</t>
+  </si>
+  <si>
+    <t>Dhahran</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Nouf</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>Riyadh</t>
+  </si>
+  <si>
+    <t>Lama</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>T&amp;R</t>
+  </si>
+  <si>
+    <t>Jeddah</t>
+  </si>
+  <si>
+    <t>Contractor</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>D&amp;R</t>
+  </si>
+  <si>
+    <t>Mubaraaz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,8 +156,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font/>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -198,21 +177,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -231,8 +201,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{193A28BE-88CC-4F2E-B7A2-8DDA363DD627}" name="Table1" displayName="Table1" ref="A1:N5" totalsRowShown="0">
-  <autoFilter ref="A1:N5" xr:uid="{193A28BE-88CC-4F2E-B7A2-8DDA363DD627}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{193A28BE-88CC-4F2E-B7A2-8DDA363DD627}" name="Table1" displayName="Table1" ref="A1:N21" totalsRowShown="0">
+  <autoFilter ref="A1:N21" xr:uid="{193A28BE-88CC-4F2E-B7A2-8DDA363DD627}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{9191DCAB-00E6-40E4-93E7-4CDF369F5ED7}" name="ID"/>
     <tableColumn id="2" xr3:uid="{020173A6-CB7B-4862-BA54-A31F434DCAF2}" name="First Name"/>
@@ -570,267 +540,831 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17:L21"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.71" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.86" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.86" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.71" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.57" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.86" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.43" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.86" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0">
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
         <v>123</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>90</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>11</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
       <c r="L2" s="2">
-        <v>45719.0</v>
-      </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <v>90</v>
+      </c>
+      <c r="I3">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>90</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="2">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>123</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <v>90</v>
+      </c>
+      <c r="I5">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="2">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <v>90</v>
+      </c>
+      <c r="I6">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="2">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
         <v>456</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H7">
         <v>78</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I7">
         <v>9</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J7" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K7" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="2">
-        <v>45719.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
+      <c r="L7" s="2">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>456</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>78</v>
+      </c>
+      <c r="I8">
+        <v>9</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="2">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>456</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <v>78</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="2">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>456</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10">
+        <v>78</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="2">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>456</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11">
+        <v>78</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="2">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
         <v>789</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="0" t="s">
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H12">
         <v>67</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I12">
         <v>7</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J12" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K12" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="2">
-        <v>45719.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
+      <c r="L12" s="2">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>789</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13">
+        <v>67</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="2">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>789</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14">
+        <v>67</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="2">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>789</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15">
+        <v>67</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="2">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>789</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16">
+        <v>67</v>
+      </c>
+      <c r="I16">
+        <v>7</v>
+      </c>
+      <c r="J16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="2">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
         <v>908</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="0" t="s">
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H17">
         <v>56</v>
       </c>
-      <c r="I5" s="0">
+      <c r="I17">
         <v>8</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J17" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K17" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="2">
-        <v>45719.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>41</v>
+      <c r="L17" s="2">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>908</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18">
+        <v>56</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="2">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>908</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19">
+        <v>56</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="J19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="2">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>908</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20">
+        <v>56</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="2">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>908</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21">
+        <v>56</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+      <c r="J21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="2">
+        <v>45723</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -31,114 +31,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="36">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Middle Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Nationality</t>
-  </si>
-  <si>
-    <t>Departement</t>
-  </si>
-  <si>
-    <t>org code</t>
-  </si>
-  <si>
-    <t>Grade Code</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Employee Type</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>signInTime</t>
-  </si>
-  <si>
-    <t>signOutTime</t>
-  </si>
-  <si>
-    <t>Noura</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Saudi</t>
-  </si>
-  <si>
-    <t>PD&amp;ED</t>
-  </si>
-  <si>
-    <t>Dhahran</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>Nouf</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
-    <t>Riyadh</t>
-  </si>
-  <si>
-    <t>Lama</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>T&amp;R</t>
-  </si>
-  <si>
-    <t>Jeddah</t>
-  </si>
-  <si>
-    <t>Contractor</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>D&amp;R</t>
-  </si>
-  <si>
-    <t>Mubaraaz</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="42">
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nationality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signInTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signOutTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD&amp;ED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhahran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riyadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T&amp;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeddah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contractor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D&amp;R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mubaraaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04-03-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:55 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:55 AM</t>
   </si>
 </sst>
 </file>
@@ -148,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +174,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -177,12 +197,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,829 +568,871 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17:L21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.71" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.86" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.86" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.57" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.86" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.43" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.86" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
+    <row r="2">
+      <c r="A2" s="0">
         <v>123</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>90</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L2" s="2">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
         <v>123</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>90</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="2">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
         <v>123</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>90</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>11</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="2">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
         <v>123</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>90</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>11</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="2">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
         <v>123</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0">
         <v>90</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0">
         <v>11</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L6" s="2">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7">
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
         <v>456</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0">
         <v>78</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0">
         <v>9</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="2">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
         <v>456</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0">
         <v>78</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0">
         <v>9</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="2">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
         <v>456</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0">
         <v>78</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0">
         <v>9</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="2">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
         <v>456</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="E10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="0">
         <v>78</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0">
         <v>9</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="2">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
         <v>456</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="E11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="0">
         <v>78</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="0">
         <v>9</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="0" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="2">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12">
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
         <v>789</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="E12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="0">
         <v>67</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="0">
         <v>7</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="2">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
         <v>789</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="E13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0">
         <v>67</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0">
         <v>7</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="2">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
         <v>789</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="E14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0">
         <v>67</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0">
         <v>7</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="2">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
         <v>789</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="E15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0">
         <v>67</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0">
         <v>7</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L15" s="2">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
         <v>789</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="E16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0">
         <v>67</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0">
         <v>7</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="2">
-        <v>45723</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17">
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
         <v>908</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="E17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0">
         <v>56</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0">
         <v>8</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="2">
-        <v>45719</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
+        <v>45719.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
         <v>908</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="E18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0">
         <v>56</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0">
         <v>8</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="2">
-        <v>45720</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19">
+        <v>45720.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
         <v>908</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="E19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0">
         <v>56</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0">
         <v>8</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="2">
-        <v>45721</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
+        <v>45721.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
         <v>908</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="E20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0">
         <v>56</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0">
         <v>8</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="2">
-        <v>45722</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
+        <v>45722.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
         <v>908</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="E21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0">
         <v>56</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0">
         <v>8</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="0" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="2">
-        <v>45723</v>
+        <v>45723.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28609"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D94D139C-5C32-4959-98A7-25BCC9D933C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96AEB460-E8E2-4221-BF6A-4F568EBC8C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="53">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -99,6 +99,33 @@
     <t xml:space="preserve">Regular</t>
   </si>
   <si>
+    <t xml:space="preserve">19-02-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:19 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:19 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-02-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:25 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:25 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-02-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-02-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-02-2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nouf</t>
   </si>
   <si>
@@ -111,6 +138,12 @@
     <t xml:space="preserve">Riyadh</t>
   </si>
   <si>
+    <t xml:space="preserve">11:05 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:05 AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lama</t>
   </si>
   <si>
@@ -123,24 +156,24 @@
     <t xml:space="preserve">T&amp;R</t>
   </si>
   <si>
-    <t xml:space="preserve">Jeddah</t>
+    <t xml:space="preserve">1:25 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:25 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D&amp;R</t>
   </si>
   <si>
     <t xml:space="preserve">Contractor</t>
   </si>
   <si>
-    <t xml:space="preserve">Sara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D&amp;R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mubaraaz</t>
-  </si>
-  <si>
     <t xml:space="preserve">123</t>
   </si>
   <si>
@@ -150,23 +183,20 @@
     <t xml:space="preserve">11</t>
   </si>
   <si>
-    <t xml:space="preserve">04-03-2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:55 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2:55 AM</t>
+    <t xml:space="preserve">25-02-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:00 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:40 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
-  </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +204,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
+    <font/>
     <font/>
     <font/>
   </fonts>
@@ -197,18 +249,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,8 +749,14 @@
       <c r="K2" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="2">
-        <v>45719.0</v>
+      <c r="L2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -703,8 +793,14 @@
       <c r="K3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="2">
-        <v>45720.0</v>
+      <c r="L3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -741,8 +837,8 @@
       <c r="K4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="2">
-        <v>45721.0</v>
+      <c r="L4" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -779,8 +875,8 @@
       <c r="K5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="2">
-        <v>45722.0</v>
+      <c r="L5" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -817,8 +913,8 @@
       <c r="K6" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="2">
-        <v>45723.0</v>
+      <c r="L6" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -826,13 +922,13 @@
         <v>456</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>17</v>
@@ -841,7 +937,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H7" s="0">
         <v>78</v>
@@ -850,13 +946,19 @@
         <v>9</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="2">
-        <v>45719.0</v>
+      <c r="L7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -864,13 +966,13 @@
         <v>456</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>17</v>
@@ -879,7 +981,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H8" s="0">
         <v>78</v>
@@ -888,13 +990,13 @@
         <v>9</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="2">
-        <v>45720.0</v>
+      <c r="L8" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -902,13 +1004,13 @@
         <v>456</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>17</v>
@@ -917,7 +1019,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H9" s="0">
         <v>78</v>
@@ -926,13 +1028,13 @@
         <v>9</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="2">
-        <v>45721.0</v>
+      <c r="L9" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -940,13 +1042,13 @@
         <v>456</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>17</v>
@@ -955,7 +1057,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H10" s="0">
         <v>78</v>
@@ -964,13 +1066,13 @@
         <v>9</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="2">
-        <v>45722.0</v>
+      <c r="L10" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -978,13 +1080,13 @@
         <v>456</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>17</v>
@@ -993,7 +1095,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H11" s="0">
         <v>78</v>
@@ -1002,13 +1104,13 @@
         <v>9</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="2">
-        <v>45723.0</v>
+      <c r="L11" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -1016,13 +1118,13 @@
         <v>789</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>17</v>
@@ -1031,7 +1133,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H12" s="0">
         <v>67</v>
@@ -1040,13 +1142,19 @@
         <v>7</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="2">
-        <v>45719.0</v>
+        <v>21</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -1054,13 +1162,13 @@
         <v>789</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>17</v>
@@ -1069,7 +1177,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H13" s="0">
         <v>67</v>
@@ -1078,13 +1186,13 @@
         <v>7</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="2">
-        <v>45720.0</v>
+        <v>21</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -1092,13 +1200,13 @@
         <v>789</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>17</v>
@@ -1107,7 +1215,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H14" s="0">
         <v>67</v>
@@ -1116,13 +1224,13 @@
         <v>7</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="2">
-        <v>45721.0</v>
+        <v>21</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -1130,13 +1238,13 @@
         <v>789</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>17</v>
@@ -1145,7 +1253,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H15" s="0">
         <v>67</v>
@@ -1154,13 +1262,13 @@
         <v>7</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="2">
-        <v>45722.0</v>
+        <v>21</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -1168,13 +1276,13 @@
         <v>789</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>17</v>
@@ -1183,7 +1291,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H16" s="0">
         <v>67</v>
@@ -1192,13 +1300,13 @@
         <v>7</v>
       </c>
       <c r="J16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="2">
-        <v>45723.0</v>
       </c>
     </row>
     <row r="17">
@@ -1206,14 +1314,14 @@
         <v>908</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="E17" s="0" t="s">
         <v>17</v>
       </c>
@@ -1221,7 +1329,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H17" s="0">
         <v>56</v>
@@ -1230,13 +1338,13 @@
         <v>8</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="2">
-        <v>45719.0</v>
+        <v>46</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -1244,14 +1352,14 @@
         <v>908</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="E18" s="0" t="s">
         <v>17</v>
       </c>
@@ -1259,7 +1367,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H18" s="0">
         <v>56</v>
@@ -1268,13 +1376,13 @@
         <v>8</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="2">
-        <v>45720.0</v>
+        <v>46</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -1282,14 +1390,14 @@
         <v>908</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="E19" s="0" t="s">
         <v>17</v>
       </c>
@@ -1297,7 +1405,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H19" s="0">
         <v>56</v>
@@ -1306,13 +1414,13 @@
         <v>8</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="2">
-        <v>45721.0</v>
+        <v>46</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20">
@@ -1320,14 +1428,14 @@
         <v>908</v>
       </c>
       <c r="B20" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="E20" s="0" t="s">
         <v>17</v>
       </c>
@@ -1335,7 +1443,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H20" s="0">
         <v>56</v>
@@ -1344,13 +1452,13 @@
         <v>8</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="2">
-        <v>45722.0</v>
+        <v>46</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -1358,14 +1466,14 @@
         <v>908</v>
       </c>
       <c r="B21" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="E21" s="0" t="s">
         <v>17</v>
       </c>
@@ -1373,7 +1481,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H21" s="0">
         <v>56</v>
@@ -1382,57 +1490,57 @@
         <v>8</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" s="2">
-        <v>45723.0</v>
+        <v>46</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="E22" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="5" t="s">
+      <c r="H22" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>41</v>
+      <c r="L22" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="N22" s="37" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="56">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -190,6 +190,15 @@
   </si>
   <si>
     <t xml:space="preserve">8:40 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04-03-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:55 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:55 AM</t>
   </si>
 </sst>
 </file>
@@ -228,6 +237,8 @@
     <font/>
     <font/>
     <font/>
+    <font/>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -249,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -281,6 +292,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1536,11 +1553,55 @@
       <c r="L22" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="M22" s="37" t="s">
+      <c r="M22" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="N22" s="37" t="s">
+      <c r="N22" s="0" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="M23" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="N23" s="43" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -195,10 +195,10 @@
     <t xml:space="preserve">04-03-2025</t>
   </si>
   <si>
-    <t xml:space="preserve">12:55 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2:55 AM</t>
+    <t xml:space="preserve">10:11 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:11 AM</t>
   </si>
 </sst>
 </file>
@@ -239,6 +239,8 @@
     <font/>
     <font/>
     <font/>
+    <font/>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -260,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -292,6 +294,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1561,46 +1569,46 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="43" t="s">
+      <c r="E23" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="43" t="s">
+      <c r="H23" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="43" t="s">
+      <c r="I23" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="43" t="s">
+      <c r="J23" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="43" t="s">
+      <c r="K23" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L23" s="43" t="s">
+      <c r="L23" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="M23" s="43" t="s">
+      <c r="M23" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="N23" s="43" t="s">
+      <c r="N23" s="49" t="s">
         <v>55</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -195,10 +195,10 @@
     <t xml:space="preserve">04-03-2025</t>
   </si>
   <si>
-    <t xml:space="preserve">10:11 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:11 AM</t>
+    <t xml:space="preserve">10:16 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:16 AM</t>
   </si>
 </sst>
 </file>
@@ -241,6 +241,8 @@
     <font/>
     <font/>
     <font/>
+    <font/>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -262,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -294,6 +296,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1605,10 +1613,10 @@
       <c r="L23" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="M23" s="49" t="s">
+      <c r="M23" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="N23" s="49" t="s">
+      <c r="N23" s="55" t="s">
         <v>55</v>
       </c>
     </row>
